--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\PLANAbPiaSY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
@@ -17,12 +22,12 @@
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -550,12 +555,15 @@
   </si>
   <si>
     <t>there would be a total 70% reduction in timber harvesting per year</t>
+  </si>
+  <si>
+    <t>Potential Land Area (acres/year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -680,6 +688,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -727,7 +738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,7 +773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,17 +986,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,147 +1004,147 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <v>2003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="6">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="6">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -1155,17 +1166,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1187,37 +1198,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <f>AVERAGE(B2:B3)*10^6</f>
         <v>275000000</v>
@@ -1226,15 +1237,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>1996726201.5999999</v>
       </c>
@@ -1242,7 +1253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <f>A12/A15</f>
         <v>0.13772544266692113</v>
@@ -1251,73 +1262,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <v>1E-3</v>
       </c>
@@ -1325,7 +1336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <f>A16/A31</f>
         <v>137.72544266692114</v>
@@ -1334,10 +1345,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="8">
         <f>A12/A32</f>
         <v>1996726.2015999998</v>
@@ -1357,22 +1368,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1391,27 +1402,27 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>B4+(0.5*C4)</f>
         <v>6814.5</v>
@@ -1420,7 +1431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>A11*1000</f>
         <v>6814500</v>
@@ -1429,67 +1440,67 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="17">
         <v>0.02</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>A12*A27</f>
         <v>136290</v>
@@ -1518,71 +1529,71 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
         <v>0</v>
       </c>
@@ -1590,17 +1601,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
     </row>
   </sheetData>
@@ -1614,48 +1625,48 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1666,7 +1677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1706,7 +1717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1746,7 +1757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -1906,7 +1917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -1960,7 +1971,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -1974,7 +1985,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -1988,7 +1999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -2002,7 +2013,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -2026,12 +2037,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>751</v>
       </c>
@@ -2039,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="8">
         <f>A32*10^6</f>
         <v>751000000</v>
@@ -2048,12 +2059,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="18">
         <f>AVERAGE('Impr Forest Mgmt'!$B$9:$B$29,'Impr Forest Mgmt'!$D$9:$D$26,'Impr Forest Mgmt'!$F$9:$F$22)/100</f>
         <v>0.87514814814814812</v>
@@ -2062,7 +2073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <f>A33*(1-A36)</f>
         <v>93763740.740740761</v>
@@ -2071,56 +2082,56 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="17">
         <v>0.5</v>
       </c>
@@ -2128,12 +2139,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="8">
         <f>A37*A50</f>
         <v>46881870.370370381</v>
@@ -2156,13 +2167,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B1" s="2">
         <v>2016</v>
       </c>
@@ -2269,7 +2283,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2428,7 @@
         <v>136290</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>1996726.2015999998</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>46881870.370370381</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2849,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2959,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC6597-548D-41DD-B963-037E56DD9ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FA273-33A9-47AA-BF70-EA38802D8C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TNC Data'!$A$3:$DW$51</definedName>
@@ -36,7 +35,7 @@
     <definedName name="grams_per_ton" localSheetId="1">#REF!</definedName>
     <definedName name="grams_per_ton">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1418,25 +1417,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PLANAbPiaSY"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>46881870</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1761,7 +1741,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20664,10 +20644,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21486,12 +21466,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>B4/[2]PLANAbPiaSY!$B$4</f>
-        <v>5.6695690679573998</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16A741-69D4-4A6D-8F7B-A37ED4D30A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1502825-F36D-4CA2-A1B9-AB1796547897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Set Asides" sheetId="13" r:id="rId4"/>
     <sheet name="Impr Forest Mgmt" sheetId="9" r:id="rId5"/>
     <sheet name="Peatland" sheetId="15" r:id="rId6"/>
-    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId7"/>
+    <sheet name="Inflation Reduction Act" sheetId="16" r:id="rId7"/>
+    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TNC Data'!$A$3:$EC$51</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="389">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -1124,17 +1125,157 @@
   <si>
     <t>pages 36-37</t>
   </si>
+  <si>
+    <t>Methodology:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We sum IRA forestry funding that aligns with the scope of the Energy Policy Simulator's LULUCF sector, then assign it to either the model's 'forest management' or 'afforestation and reforestation' levers. We then find the policy setting that matches total government spend over the period of 2023-2031. For Section 23001, we only include the protection of old-growth forests funding and exclude hazardous fuels reduction and vegetation management, which are outside the scope of the model.
+The EPS assumes forest management practices need to be consistently implemented in every year in order to maintain emissions reductions. To be conservative, we phase out forest management practices incentivized by the IRA over a period of 4 years rather than assume permanent reductions. </t>
+  </si>
+  <si>
+    <t>Policy Settings:</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Forest Management</t>
+  </si>
+  <si>
+    <t>Afforestation and Reforestation</t>
+  </si>
+  <si>
+    <t>*found through calibration</t>
+  </si>
+  <si>
+    <t>Implementation Schedule, Afforestation and Reforestation, Avoided Deforestation</t>
+  </si>
+  <si>
+    <t>Implementation Schedule, Forest Management</t>
+  </si>
+  <si>
+    <t>Government Subsidy (millions)</t>
+  </si>
+  <si>
+    <t>Subsidy Implementation Schedule</t>
+  </si>
+  <si>
+    <t>Calculations:</t>
+  </si>
+  <si>
+    <t>2022 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Forestry Funding in Inflation Reduction Act of 2022 (Billion USD)</t>
+  </si>
+  <si>
+    <t>hazardous fuels reduction</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>vegetation management</t>
+  </si>
+  <si>
+    <t>environmental reviews</t>
+  </si>
+  <si>
+    <t>protection of old-growth forests</t>
+  </si>
+  <si>
+    <t>forest management</t>
+  </si>
+  <si>
+    <t>competitive grants for climate mitigation</t>
+  </si>
+  <si>
+    <t>wood innovation grant program</t>
+  </si>
+  <si>
+    <t>tree planting</t>
+  </si>
+  <si>
+    <t>admin costs</t>
+  </si>
+  <si>
+    <t>Total Target Spend by EPS Policy</t>
+  </si>
+  <si>
+    <t>Settings Calibrated by Enabling Policy in EPS</t>
+  </si>
+  <si>
+    <t>Forest Management Only</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[government] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[nonenergy industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[labor and consumers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[foreign entities] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[electricity suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[coal suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[natural gas and petroleum suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[biomass and biofuel suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[other energy suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Total spending in EPS (2012 USD)</t>
+  </si>
+  <si>
+    <t>Calibrated Value Used</t>
+  </si>
+  <si>
+    <t>Afforestation and Reforestation Only</t>
+  </si>
+  <si>
+    <t>We phase in the expected forestry impacts so they reach their maximum in the year 2031, according to the following implementation schedule:</t>
+  </si>
+  <si>
+    <t>We also adjust this variable to remove the potential implemented as part of Inflation Reduction Act</t>
+  </si>
+  <si>
+    <t>calculations (see relevant tab for methodology).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,8 +1356,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +1434,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1275,14 +1450,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1339,13 +1515,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{DE5C1F08-8D32-485A-AE57-A6B901E59438}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{C8E16585-9EA0-4D3E-9EA1-6CBA1D704237}"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1410,7 +1614,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -1787,23 +1991,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1811,246 +2015,256 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="45" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2076,72 +2290,72 @@
       <selection pane="bottomLeft" activeCell="CZ53" sqref="CZ53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="12"/>
-    <col min="3" max="3" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="18" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="12"/>
+    <col min="3" max="3" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="18" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="18" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" style="39" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="12" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="13.54296875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="13.5703125" style="12" customWidth="1"/>
     <col min="19" max="19" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="11.7265625" style="12" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" style="18" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" style="12" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="11.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="12" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="11.7265625" style="12" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="11.7109375" style="12" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="18" customWidth="1"/>
-    <col min="28" max="28" width="11.7265625" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="11.7265625" style="12" customWidth="1"/>
-    <col min="32" max="41" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.7265625" style="12" customWidth="1"/>
-    <col min="44" max="44" width="13.81640625" style="40" customWidth="1"/>
-    <col min="45" max="51" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="11.7109375" style="12" customWidth="1"/>
+    <col min="32" max="41" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" style="12" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" style="40" customWidth="1"/>
+    <col min="45" max="51" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="52" max="54" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="11.7265625" style="12" customWidth="1"/>
-    <col min="58" max="67" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.54296875" style="12"/>
+    <col min="55" max="57" width="11.7109375" style="12" customWidth="1"/>
+    <col min="58" max="67" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5703125" style="12"/>
     <col min="69" max="72" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.54296875" style="12"/>
+    <col min="73" max="73" width="11.5703125" style="12"/>
     <col min="74" max="77" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.54296875" style="12"/>
-    <col min="79" max="82" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.54296875" style="12"/>
-    <col min="84" max="87" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.5703125" style="12"/>
+    <col min="79" max="82" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.5703125" style="12"/>
+    <col min="84" max="87" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="89" max="90" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="98" max="100" width="11.7265625" style="12" customWidth="1"/>
-    <col min="101" max="101" width="11.54296875" style="12"/>
-    <col min="102" max="103" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="13.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.54296875" style="12"/>
-    <col min="107" max="108" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="11.7265625" style="12" customWidth="1"/>
-    <col min="114" max="114" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="115" max="123" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="125" max="133" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="134" max="16384" width="11.54296875" style="12"/>
+    <col min="93" max="93" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="98" max="100" width="11.7109375" style="12" customWidth="1"/>
+    <col min="101" max="101" width="11.5703125" style="12"/>
+    <col min="102" max="103" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.5703125" style="12"/>
+    <col min="107" max="108" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="11.7109375" style="12" customWidth="1"/>
+    <col min="114" max="114" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="115" max="123" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="125" max="133" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="134" max="16384" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
         <v>87</v>
@@ -2234,7 +2448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2279,7 +2493,7 @@
       <c r="DH2" s="17"/>
       <c r="DI2" s="17"/>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>99</v>
       </c>
@@ -2680,7 +2894,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3274,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -3440,7 +3654,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3820,7 +4034,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="7" spans="1:133" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:133" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
@@ -4227,7 +4441,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -4628,7 +4842,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
@@ -5029,7 +5243,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5430,7 +5644,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
@@ -5810,7 +6024,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
@@ -6190,7 +6404,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>46</v>
       </c>
@@ -6570,7 +6784,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
@@ -6950,7 +7164,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>42</v>
       </c>
@@ -7330,7 +7544,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>37</v>
       </c>
@@ -7710,7 +7924,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>49</v>
       </c>
@@ -8090,7 +8304,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -8470,7 +8684,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
@@ -8850,7 +9064,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
@@ -9230,7 +9444,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
@@ -9631,7 +9845,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>44</v>
       </c>
@@ -10032,7 +10246,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
@@ -10412,7 +10626,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>55</v>
       </c>
@@ -10813,7 +11027,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -11193,7 +11407,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -11573,7 +11787,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>52</v>
       </c>
@@ -11953,7 +12167,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
@@ -12333,7 +12547,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="29" spans="1:133" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:133" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>60</v>
       </c>
@@ -12724,7 +12938,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -13104,7 +13318,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>64</v>
       </c>
@@ -13505,7 +13719,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
@@ -13885,7 +14099,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="33" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -14286,7 +14500,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="34" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>48</v>
       </c>
@@ -14687,7 +14901,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="35" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>54</v>
       </c>
@@ -15067,7 +15281,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="36" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>69</v>
       </c>
@@ -15447,7 +15661,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="37" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>51</v>
       </c>
@@ -15827,7 +16041,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="38" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>66</v>
       </c>
@@ -16228,7 +16442,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>71</v>
       </c>
@@ -16608,7 +16822,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="40" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>73</v>
       </c>
@@ -17009,7 +17223,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="41" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -17389,7 +17603,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="42" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>68</v>
       </c>
@@ -17769,7 +17983,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="43" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
@@ -18149,7 +18363,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="44" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -18529,7 +18743,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="45" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>70</v>
       </c>
@@ -18909,7 +19123,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="46" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>75</v>
       </c>
@@ -19310,7 +19524,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="47" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>65</v>
       </c>
@@ -19711,7 +19925,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="48" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>72</v>
       </c>
@@ -20112,7 +20326,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="49" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>77</v>
       </c>
@@ -20492,7 +20706,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="50" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>76</v>
       </c>
@@ -20872,7 +21086,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="51" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>74</v>
       </c>
@@ -21252,7 +21466,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="52" spans="1:133" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:133" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>267</v>
       </c>
@@ -21456,13 +21670,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
         <v>272</v>
       </c>
@@ -21487,7 +21701,7 @@
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>273</v>
       </c>
@@ -21512,12 +21726,12 @@
       <c r="U3" s="42"/>
       <c r="V3" s="42"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>275</v>
       </c>
@@ -21525,7 +21739,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -21537,7 +21751,7 @@
         <v>252444615.67210001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -21549,7 +21763,7 @@
         <v>127945483.62911001</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>287</v>
       </c>
@@ -21558,11 +21772,11 @@
         <v>3554041.2119197226</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="44"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>275</v>
       </c>
@@ -21570,7 +21784,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>277</v>
       </c>
@@ -21582,7 +21796,7 @@
         <v>37999999.998844996</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -21594,7 +21808,7 @@
         <v>6764601.5311640995</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>287</v>
       </c>
@@ -21603,11 +21817,11 @@
         <v>187905.59808789165</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>275</v>
       </c>
@@ -21615,7 +21829,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>277</v>
       </c>
@@ -21627,7 +21841,7 @@
         <v>116013193.64404109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -21639,7 +21853,7 @@
         <v>6813914.8343433412</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>287</v>
       </c>
@@ -21661,22 +21875,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>289</v>
       </c>
@@ -21684,7 +21898,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -21695,27 +21909,27 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>B4+(0.5*C4)</f>
         <v>6814.5</v>
@@ -21724,7 +21938,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A11*1000</f>
         <v>6814500</v>
@@ -21733,67 +21947,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>0.02</v>
       </c>
@@ -21801,7 +22015,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A12*A27</f>
         <v>136290</v>
@@ -21824,35 +22038,35 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>765</v>
       </c>
@@ -21860,7 +22074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>A5*10^6</f>
         <v>765000000</v>
@@ -21869,12 +22083,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>443</v>
       </c>
@@ -21882,7 +22096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>A9*10^6</f>
         <v>443000000</v>
@@ -21891,12 +22105,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>0.6</v>
       </c>
@@ -21904,7 +22118,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>A10*A13</f>
         <v>265800000</v>
@@ -21913,66 +22127,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f>A14</f>
         <v>265800000</v>
@@ -21997,17 +22211,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>327</v>
       </c>
@@ -22015,7 +22229,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -22024,7 +22238,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>329</v>
       </c>
@@ -22032,7 +22246,7 @@
         <v>890909</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>330</v>
       </c>
@@ -22041,7 +22255,7 @@
         <v>3390909</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>331</v>
       </c>
@@ -22056,6 +22270,4646 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE00148-7CC5-4804-8234-8596D66C67BC}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:BL86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+    </row>
+    <row r="2" spans="1:64" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="52"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+    </row>
+    <row r="4" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="52">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C7" s="52">
+        <f t="shared" ref="C7:D8" si="0">B7</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="52">
+        <v>0.37</v>
+      </c>
+      <c r="C8" s="52">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="54">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="54">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="54">
+        <v>2031</v>
+      </c>
+      <c r="E11" s="54">
+        <v>2033</v>
+      </c>
+      <c r="F11" s="54">
+        <v>2050</v>
+      </c>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54">
+        <v>0</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54">
+        <v>1</v>
+      </c>
+      <c r="E12" s="54">
+        <v>0</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
+    </row>
+    <row r="14" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="54">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="54">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="54">
+        <v>2031</v>
+      </c>
+      <c r="E14" s="54">
+        <v>2035</v>
+      </c>
+      <c r="F14" s="54">
+        <v>2050</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="50"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
+      <c r="BJ14" s="50"/>
+      <c r="BK14" s="50"/>
+    </row>
+    <row r="15" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="54">
+        <v>0</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54">
+        <v>1</v>
+      </c>
+      <c r="E15" s="54">
+        <v>0</v>
+      </c>
+      <c r="F15" s="54">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+    </row>
+    <row r="16" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
+    </row>
+    <row r="17" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
+    </row>
+    <row r="18" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="56">
+        <f>SUM(B42:B43)*10^3/9</f>
+        <v>311.11111111111109</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+    </row>
+    <row r="19" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="50"/>
+      <c r="BL19" s="50"/>
+    </row>
+    <row r="20" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+    </row>
+    <row r="21" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="57">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="57">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="57">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="57">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="57">
+        <v>2025</v>
+      </c>
+      <c r="G21" s="57">
+        <v>2026</v>
+      </c>
+      <c r="H21" s="57">
+        <v>2027</v>
+      </c>
+      <c r="I21" s="57">
+        <v>2028</v>
+      </c>
+      <c r="J21" s="57">
+        <v>2029</v>
+      </c>
+      <c r="K21" s="57">
+        <v>2030</v>
+      </c>
+      <c r="L21" s="57">
+        <v>2031</v>
+      </c>
+      <c r="M21" s="57">
+        <v>2032</v>
+      </c>
+      <c r="N21" s="57">
+        <v>2033</v>
+      </c>
+      <c r="O21" s="57">
+        <v>2034</v>
+      </c>
+      <c r="P21" s="57">
+        <v>2035</v>
+      </c>
+      <c r="Q21" s="57">
+        <v>2036</v>
+      </c>
+      <c r="R21" s="57">
+        <v>2037</v>
+      </c>
+      <c r="S21" s="57">
+        <v>2038</v>
+      </c>
+      <c r="T21" s="57">
+        <v>2039</v>
+      </c>
+      <c r="U21" s="57">
+        <v>2040</v>
+      </c>
+      <c r="V21" s="57">
+        <v>2041</v>
+      </c>
+      <c r="W21" s="57">
+        <v>2042</v>
+      </c>
+      <c r="X21" s="57">
+        <v>2043</v>
+      </c>
+      <c r="Y21" s="57">
+        <v>2044</v>
+      </c>
+      <c r="Z21" s="57">
+        <v>2045</v>
+      </c>
+      <c r="AA21" s="57">
+        <v>2046</v>
+      </c>
+      <c r="AB21" s="57">
+        <v>2047</v>
+      </c>
+      <c r="AC21" s="57">
+        <v>2048</v>
+      </c>
+      <c r="AD21" s="57">
+        <v>2049</v>
+      </c>
+      <c r="AE21" s="57">
+        <v>2050</v>
+      </c>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="55"/>
+      <c r="BJ21" s="55"/>
+      <c r="BK21" s="55"/>
+      <c r="BL21" s="55"/>
+    </row>
+    <row r="22" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
+        <v>0</v>
+      </c>
+      <c r="B22" s="58">
+        <v>0</v>
+      </c>
+      <c r="C22" s="58">
+        <v>0</v>
+      </c>
+      <c r="D22" s="58">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E22" s="58">
+        <f t="shared" ref="E22:L22" si="1">D22+1/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="K22" s="58">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="L22" s="58">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M22" s="58">
+        <v>0</v>
+      </c>
+      <c r="N22" s="58">
+        <v>0</v>
+      </c>
+      <c r="O22" s="58">
+        <v>0</v>
+      </c>
+      <c r="P22" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="58">
+        <v>0</v>
+      </c>
+      <c r="R22" s="58">
+        <v>0</v>
+      </c>
+      <c r="S22" s="58">
+        <v>0</v>
+      </c>
+      <c r="T22" s="58">
+        <v>0</v>
+      </c>
+      <c r="U22" s="58">
+        <v>0</v>
+      </c>
+      <c r="V22" s="58">
+        <v>0</v>
+      </c>
+      <c r="W22" s="58">
+        <v>0</v>
+      </c>
+      <c r="X22" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="50"/>
+      <c r="BK22" s="50"/>
+      <c r="BL22" s="50"/>
+    </row>
+    <row r="23" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="50"/>
+      <c r="BD23" s="50"/>
+      <c r="BE23" s="50"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="50"/>
+      <c r="BJ23" s="50"/>
+      <c r="BK23" s="50"/>
+      <c r="BL23" s="50"/>
+    </row>
+    <row r="24" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="52">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B34" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="54"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" s="54">
+        <f>SUM(B31:B37)</f>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="54">
+        <f>B38</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A47" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="52"/>
+      <c r="AS47" s="52"/>
+      <c r="AT47" s="52"/>
+      <c r="AU47" s="52"/>
+      <c r="AV47" s="52"/>
+      <c r="AW47" s="52"/>
+      <c r="AX47" s="52"/>
+      <c r="AY47" s="52"/>
+      <c r="AZ47" s="52"/>
+      <c r="BA47" s="52"/>
+      <c r="BB47" s="52"/>
+      <c r="BC47" s="52"/>
+      <c r="BD47" s="52"/>
+      <c r="BE47" s="52"/>
+      <c r="BF47" s="52"/>
+      <c r="BG47" s="52"/>
+      <c r="BH47" s="52"/>
+      <c r="BI47" s="52"/>
+      <c r="BJ47" s="52"/>
+      <c r="BK47" s="52"/>
+      <c r="BL47" s="52"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="B48" s="52">
+        <v>2020</v>
+      </c>
+      <c r="C48" s="52">
+        <v>2021</v>
+      </c>
+      <c r="D48" s="59">
+        <v>2022</v>
+      </c>
+      <c r="E48" s="52">
+        <v>2023</v>
+      </c>
+      <c r="F48" s="52">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="52">
+        <v>2025</v>
+      </c>
+      <c r="H48" s="52">
+        <v>2026</v>
+      </c>
+      <c r="I48" s="52">
+        <v>2027</v>
+      </c>
+      <c r="J48" s="52">
+        <v>2028</v>
+      </c>
+      <c r="K48" s="52">
+        <v>2029</v>
+      </c>
+      <c r="L48" s="52">
+        <v>2030</v>
+      </c>
+      <c r="M48" s="52">
+        <v>2031</v>
+      </c>
+      <c r="N48" s="52">
+        <v>2032</v>
+      </c>
+      <c r="O48" s="52">
+        <v>2033</v>
+      </c>
+      <c r="P48" s="52">
+        <v>2034</v>
+      </c>
+      <c r="Q48" s="52">
+        <v>2035</v>
+      </c>
+      <c r="R48" s="52">
+        <v>2036</v>
+      </c>
+      <c r="S48" s="52">
+        <v>2037</v>
+      </c>
+      <c r="T48" s="52">
+        <v>2038</v>
+      </c>
+      <c r="U48" s="52">
+        <v>2039</v>
+      </c>
+      <c r="V48" s="52">
+        <v>2040</v>
+      </c>
+      <c r="W48" s="52">
+        <v>2041</v>
+      </c>
+      <c r="X48" s="52">
+        <v>2042</v>
+      </c>
+      <c r="Y48" s="52">
+        <v>2043</v>
+      </c>
+      <c r="Z48" s="52">
+        <v>2044</v>
+      </c>
+      <c r="AA48" s="52">
+        <v>2045</v>
+      </c>
+      <c r="AB48" s="52">
+        <v>2046</v>
+      </c>
+      <c r="AC48" s="52">
+        <v>2047</v>
+      </c>
+      <c r="AD48" s="52">
+        <v>2048</v>
+      </c>
+      <c r="AE48" s="52">
+        <v>2049</v>
+      </c>
+      <c r="AF48" s="52">
+        <v>2050</v>
+      </c>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+      <c r="AM48" s="52"/>
+      <c r="AN48" s="52"/>
+      <c r="AO48" s="52"/>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="52"/>
+      <c r="AS48" s="52"/>
+      <c r="AT48" s="52"/>
+      <c r="AU48" s="52"/>
+      <c r="AV48" s="52"/>
+      <c r="AW48" s="52"/>
+      <c r="AX48" s="52"/>
+      <c r="AY48" s="52"/>
+      <c r="AZ48" s="52"/>
+      <c r="BA48" s="52"/>
+      <c r="BB48" s="52"/>
+      <c r="BC48" s="52"/>
+      <c r="BD48" s="52"/>
+      <c r="BE48" s="52"/>
+      <c r="BF48" s="52"/>
+      <c r="BG48" s="52"/>
+      <c r="BH48" s="52"/>
+      <c r="BI48" s="52"/>
+      <c r="BJ48" s="52"/>
+      <c r="BK48" s="52"/>
+      <c r="BL48" s="52"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A49" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B49" s="52">
+        <v>0</v>
+      </c>
+      <c r="C49" s="52">
+        <v>0</v>
+      </c>
+      <c r="D49" s="60">
+        <v>0</v>
+      </c>
+      <c r="E49" s="60">
+        <v>9810960</v>
+      </c>
+      <c r="F49" s="60">
+        <v>19621900</v>
+      </c>
+      <c r="G49" s="60">
+        <v>29432900</v>
+      </c>
+      <c r="H49" s="60">
+        <v>39243800</v>
+      </c>
+      <c r="I49" s="60">
+        <v>49054900</v>
+      </c>
+      <c r="J49" s="60">
+        <v>58865800</v>
+      </c>
+      <c r="K49" s="60">
+        <v>68676800</v>
+      </c>
+      <c r="L49" s="60">
+        <v>78487700</v>
+      </c>
+      <c r="M49" s="60">
+        <v>88298700</v>
+      </c>
+      <c r="N49" s="60">
+        <v>66224000</v>
+      </c>
+      <c r="O49" s="60">
+        <v>44149300</v>
+      </c>
+      <c r="P49" s="60">
+        <v>22074700</v>
+      </c>
+      <c r="Q49" s="60">
+        <v>0</v>
+      </c>
+      <c r="R49" s="60">
+        <v>0</v>
+      </c>
+      <c r="S49" s="60">
+        <v>0</v>
+      </c>
+      <c r="T49" s="60">
+        <v>0</v>
+      </c>
+      <c r="U49" s="60">
+        <v>0</v>
+      </c>
+      <c r="V49" s="60">
+        <v>0</v>
+      </c>
+      <c r="W49" s="60">
+        <v>0</v>
+      </c>
+      <c r="X49" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="60"/>
+      <c r="AJ49" s="60"/>
+      <c r="AK49" s="60"/>
+      <c r="AL49" s="60"/>
+      <c r="AM49" s="60"/>
+      <c r="AN49" s="60"/>
+      <c r="AO49" s="60"/>
+      <c r="AP49" s="60"/>
+      <c r="AQ49" s="60"/>
+      <c r="AR49" s="60"/>
+      <c r="AS49" s="60"/>
+      <c r="AT49" s="60"/>
+      <c r="AU49" s="60"/>
+      <c r="AV49" s="60"/>
+      <c r="AW49" s="60"/>
+      <c r="AX49" s="60"/>
+      <c r="AY49" s="60"/>
+      <c r="AZ49" s="60"/>
+      <c r="BA49" s="60"/>
+      <c r="BB49" s="60"/>
+      <c r="BC49" s="60"/>
+      <c r="BD49" s="60"/>
+      <c r="BE49" s="60"/>
+      <c r="BF49" s="60"/>
+      <c r="BG49" s="60"/>
+      <c r="BH49" s="60"/>
+      <c r="BI49" s="60"/>
+      <c r="BJ49" s="60"/>
+      <c r="BK49" s="60"/>
+      <c r="BL49" s="60"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B50" s="52">
+        <v>0</v>
+      </c>
+      <c r="C50" s="52">
+        <v>0</v>
+      </c>
+      <c r="D50" s="60">
+        <v>0</v>
+      </c>
+      <c r="E50" s="60">
+        <v>12217400</v>
+      </c>
+      <c r="F50" s="60">
+        <v>24434800</v>
+      </c>
+      <c r="G50" s="60">
+        <v>36652300</v>
+      </c>
+      <c r="H50" s="60">
+        <v>48869700</v>
+      </c>
+      <c r="I50" s="60">
+        <v>61087200</v>
+      </c>
+      <c r="J50" s="60">
+        <v>73304600</v>
+      </c>
+      <c r="K50" s="60">
+        <v>85522000</v>
+      </c>
+      <c r="L50" s="60">
+        <v>97739400</v>
+      </c>
+      <c r="M50" s="60">
+        <v>109957000</v>
+      </c>
+      <c r="N50" s="60">
+        <v>82467600</v>
+      </c>
+      <c r="O50" s="60">
+        <v>54978400</v>
+      </c>
+      <c r="P50" s="60">
+        <v>27489200</v>
+      </c>
+      <c r="Q50" s="60">
+        <v>0</v>
+      </c>
+      <c r="R50" s="60">
+        <v>0</v>
+      </c>
+      <c r="S50" s="60">
+        <v>0</v>
+      </c>
+      <c r="T50" s="60">
+        <v>0</v>
+      </c>
+      <c r="U50" s="60">
+        <v>0</v>
+      </c>
+      <c r="V50" s="60">
+        <v>0</v>
+      </c>
+      <c r="W50" s="60">
+        <v>0</v>
+      </c>
+      <c r="X50" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+      <c r="AL50" s="52"/>
+      <c r="AM50" s="52"/>
+      <c r="AN50" s="52"/>
+      <c r="AO50" s="52"/>
+      <c r="AP50" s="52"/>
+      <c r="AQ50" s="52"/>
+      <c r="AR50" s="52"/>
+      <c r="AS50" s="52"/>
+      <c r="AT50" s="52"/>
+      <c r="AU50" s="52"/>
+      <c r="AV50" s="52"/>
+      <c r="AW50" s="52"/>
+      <c r="AX50" s="52"/>
+      <c r="AY50" s="52"/>
+      <c r="AZ50" s="52"/>
+      <c r="BA50" s="52"/>
+      <c r="BB50" s="52"/>
+      <c r="BC50" s="52"/>
+      <c r="BD50" s="52"/>
+      <c r="BE50" s="52"/>
+      <c r="BF50" s="52"/>
+      <c r="BG50" s="52"/>
+      <c r="BH50" s="52"/>
+      <c r="BI50" s="52"/>
+      <c r="BJ50" s="52"/>
+      <c r="BK50" s="52"/>
+      <c r="BL50" s="52"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A51" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B51" s="52">
+        <v>0</v>
+      </c>
+      <c r="C51" s="52">
+        <v>0</v>
+      </c>
+      <c r="D51" s="60">
+        <v>0</v>
+      </c>
+      <c r="E51" s="60">
+        <v>1110670</v>
+      </c>
+      <c r="F51" s="60">
+        <v>2221350</v>
+      </c>
+      <c r="G51" s="60">
+        <v>3332020</v>
+      </c>
+      <c r="H51" s="60">
+        <v>4442700</v>
+      </c>
+      <c r="I51" s="60">
+        <v>5553380</v>
+      </c>
+      <c r="J51" s="60">
+        <v>6664060</v>
+      </c>
+      <c r="K51" s="60">
+        <v>7774730</v>
+      </c>
+      <c r="L51" s="60">
+        <v>8885410</v>
+      </c>
+      <c r="M51" s="60">
+        <v>9996080</v>
+      </c>
+      <c r="N51" s="60">
+        <v>7497060</v>
+      </c>
+      <c r="O51" s="60">
+        <v>4998040</v>
+      </c>
+      <c r="P51" s="60">
+        <v>2499020</v>
+      </c>
+      <c r="Q51" s="60">
+        <v>0</v>
+      </c>
+      <c r="R51" s="60">
+        <v>0</v>
+      </c>
+      <c r="S51" s="60">
+        <v>0</v>
+      </c>
+      <c r="T51" s="60">
+        <v>0</v>
+      </c>
+      <c r="U51" s="60">
+        <v>0</v>
+      </c>
+      <c r="V51" s="60">
+        <v>0</v>
+      </c>
+      <c r="W51" s="60">
+        <v>0</v>
+      </c>
+      <c r="X51" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+      <c r="AM51" s="52"/>
+      <c r="AN51" s="52"/>
+      <c r="AO51" s="52"/>
+      <c r="AP51" s="52"/>
+      <c r="AQ51" s="52"/>
+      <c r="AR51" s="52"/>
+      <c r="AS51" s="52"/>
+      <c r="AT51" s="52"/>
+      <c r="AU51" s="52"/>
+      <c r="AV51" s="52"/>
+      <c r="AW51" s="52"/>
+      <c r="AX51" s="52"/>
+      <c r="AY51" s="52"/>
+      <c r="AZ51" s="52"/>
+      <c r="BA51" s="52"/>
+      <c r="BB51" s="52"/>
+      <c r="BC51" s="52"/>
+      <c r="BD51" s="52"/>
+      <c r="BE51" s="52"/>
+      <c r="BF51" s="52"/>
+      <c r="BG51" s="52"/>
+      <c r="BH51" s="52"/>
+      <c r="BI51" s="52"/>
+      <c r="BJ51" s="52"/>
+      <c r="BK51" s="52"/>
+      <c r="BL51" s="52"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A52" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="B52" s="52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="52">
+        <v>0</v>
+      </c>
+      <c r="O52" s="52">
+        <v>0</v>
+      </c>
+      <c r="P52" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="52">
+        <v>0</v>
+      </c>
+      <c r="R52" s="52">
+        <v>0</v>
+      </c>
+      <c r="S52" s="52">
+        <v>0</v>
+      </c>
+      <c r="T52" s="52">
+        <v>0</v>
+      </c>
+      <c r="U52" s="52">
+        <v>0</v>
+      </c>
+      <c r="V52" s="52">
+        <v>0</v>
+      </c>
+      <c r="W52" s="52">
+        <v>0</v>
+      </c>
+      <c r="X52" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+      <c r="AM52" s="52"/>
+      <c r="AN52" s="52"/>
+      <c r="AO52" s="52"/>
+      <c r="AP52" s="52"/>
+      <c r="AQ52" s="52"/>
+      <c r="AR52" s="52"/>
+      <c r="AS52" s="52"/>
+      <c r="AT52" s="52"/>
+      <c r="AU52" s="52"/>
+      <c r="AV52" s="52"/>
+      <c r="AW52" s="52"/>
+      <c r="AX52" s="52"/>
+      <c r="AY52" s="52"/>
+      <c r="AZ52" s="52"/>
+      <c r="BA52" s="52"/>
+      <c r="BB52" s="52"/>
+      <c r="BC52" s="52"/>
+      <c r="BD52" s="52"/>
+      <c r="BE52" s="52"/>
+      <c r="BF52" s="52"/>
+      <c r="BG52" s="52"/>
+      <c r="BH52" s="52"/>
+      <c r="BI52" s="52"/>
+      <c r="BJ52" s="52"/>
+      <c r="BK52" s="52"/>
+      <c r="BL52" s="52"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A53" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="B53" s="52">
+        <v>0</v>
+      </c>
+      <c r="C53" s="52">
+        <v>0</v>
+      </c>
+      <c r="D53" s="52">
+        <v>0</v>
+      </c>
+      <c r="E53" s="52">
+        <v>0</v>
+      </c>
+      <c r="F53" s="52">
+        <v>0</v>
+      </c>
+      <c r="G53" s="52">
+        <v>0</v>
+      </c>
+      <c r="H53" s="52">
+        <v>0</v>
+      </c>
+      <c r="I53" s="52">
+        <v>0</v>
+      </c>
+      <c r="J53" s="52">
+        <v>0</v>
+      </c>
+      <c r="K53" s="52">
+        <v>0</v>
+      </c>
+      <c r="L53" s="52">
+        <v>0</v>
+      </c>
+      <c r="M53" s="52">
+        <v>0</v>
+      </c>
+      <c r="N53" s="52">
+        <v>0</v>
+      </c>
+      <c r="O53" s="52">
+        <v>0</v>
+      </c>
+      <c r="P53" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="52">
+        <v>0</v>
+      </c>
+      <c r="R53" s="52">
+        <v>0</v>
+      </c>
+      <c r="S53" s="52">
+        <v>0</v>
+      </c>
+      <c r="T53" s="52">
+        <v>0</v>
+      </c>
+      <c r="U53" s="52">
+        <v>0</v>
+      </c>
+      <c r="V53" s="52">
+        <v>0</v>
+      </c>
+      <c r="W53" s="52">
+        <v>0</v>
+      </c>
+      <c r="X53" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52"/>
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
+      <c r="AO53" s="52"/>
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="52"/>
+      <c r="AR53" s="52"/>
+      <c r="AS53" s="52"/>
+      <c r="AT53" s="52"/>
+      <c r="AU53" s="52"/>
+      <c r="AV53" s="52"/>
+      <c r="AW53" s="52"/>
+      <c r="AX53" s="52"/>
+      <c r="AY53" s="52"/>
+      <c r="AZ53" s="52"/>
+      <c r="BA53" s="52"/>
+      <c r="BB53" s="52"/>
+      <c r="BC53" s="52"/>
+      <c r="BD53" s="52"/>
+      <c r="BE53" s="52"/>
+      <c r="BF53" s="52"/>
+      <c r="BG53" s="52"/>
+      <c r="BH53" s="52"/>
+      <c r="BI53" s="52"/>
+      <c r="BJ53" s="52"/>
+      <c r="BK53" s="52"/>
+      <c r="BL53" s="52"/>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54" s="52">
+        <v>0</v>
+      </c>
+      <c r="C54" s="52">
+        <v>0</v>
+      </c>
+      <c r="D54" s="52">
+        <v>0</v>
+      </c>
+      <c r="E54" s="52">
+        <v>0</v>
+      </c>
+      <c r="F54" s="52">
+        <v>0</v>
+      </c>
+      <c r="G54" s="52">
+        <v>0</v>
+      </c>
+      <c r="H54" s="52">
+        <v>0</v>
+      </c>
+      <c r="I54" s="52">
+        <v>0</v>
+      </c>
+      <c r="J54" s="52">
+        <v>0</v>
+      </c>
+      <c r="K54" s="52">
+        <v>0</v>
+      </c>
+      <c r="L54" s="52">
+        <v>0</v>
+      </c>
+      <c r="M54" s="52">
+        <v>0</v>
+      </c>
+      <c r="N54" s="52">
+        <v>0</v>
+      </c>
+      <c r="O54" s="52">
+        <v>0</v>
+      </c>
+      <c r="P54" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="52">
+        <v>0</v>
+      </c>
+      <c r="R54" s="52">
+        <v>0</v>
+      </c>
+      <c r="S54" s="52">
+        <v>0</v>
+      </c>
+      <c r="T54" s="52">
+        <v>0</v>
+      </c>
+      <c r="U54" s="52">
+        <v>0</v>
+      </c>
+      <c r="V54" s="52">
+        <v>0</v>
+      </c>
+      <c r="W54" s="52">
+        <v>0</v>
+      </c>
+      <c r="X54" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="52"/>
+      <c r="AO54" s="52"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="52"/>
+      <c r="AS54" s="52"/>
+      <c r="AT54" s="52"/>
+      <c r="AU54" s="52"/>
+      <c r="AV54" s="52"/>
+      <c r="AW54" s="52"/>
+      <c r="AX54" s="52"/>
+      <c r="AY54" s="52"/>
+      <c r="AZ54" s="52"/>
+      <c r="BA54" s="52"/>
+      <c r="BB54" s="52"/>
+      <c r="BC54" s="52"/>
+      <c r="BD54" s="52"/>
+      <c r="BE54" s="52"/>
+      <c r="BF54" s="52"/>
+      <c r="BG54" s="52"/>
+      <c r="BH54" s="52"/>
+      <c r="BI54" s="52"/>
+      <c r="BJ54" s="52"/>
+      <c r="BK54" s="52"/>
+      <c r="BL54" s="52"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A55" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" s="52">
+        <v>0</v>
+      </c>
+      <c r="C55" s="52">
+        <v>0</v>
+      </c>
+      <c r="D55" s="52">
+        <v>0</v>
+      </c>
+      <c r="E55" s="52">
+        <v>0</v>
+      </c>
+      <c r="F55" s="52">
+        <v>0</v>
+      </c>
+      <c r="G55" s="52">
+        <v>0</v>
+      </c>
+      <c r="H55" s="52">
+        <v>0</v>
+      </c>
+      <c r="I55" s="52">
+        <v>0</v>
+      </c>
+      <c r="J55" s="52">
+        <v>0</v>
+      </c>
+      <c r="K55" s="52">
+        <v>0</v>
+      </c>
+      <c r="L55" s="52">
+        <v>0</v>
+      </c>
+      <c r="M55" s="52">
+        <v>0</v>
+      </c>
+      <c r="N55" s="52">
+        <v>0</v>
+      </c>
+      <c r="O55" s="52">
+        <v>0</v>
+      </c>
+      <c r="P55" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="52">
+        <v>0</v>
+      </c>
+      <c r="R55" s="52">
+        <v>0</v>
+      </c>
+      <c r="S55" s="52">
+        <v>0</v>
+      </c>
+      <c r="T55" s="52">
+        <v>0</v>
+      </c>
+      <c r="U55" s="52">
+        <v>0</v>
+      </c>
+      <c r="V55" s="52">
+        <v>0</v>
+      </c>
+      <c r="W55" s="52">
+        <v>0</v>
+      </c>
+      <c r="X55" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="52"/>
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="52"/>
+      <c r="AS55" s="52"/>
+      <c r="AT55" s="52"/>
+      <c r="AU55" s="52"/>
+      <c r="AV55" s="52"/>
+      <c r="AW55" s="52"/>
+      <c r="AX55" s="52"/>
+      <c r="AY55" s="52"/>
+      <c r="AZ55" s="52"/>
+      <c r="BA55" s="52"/>
+      <c r="BB55" s="52"/>
+      <c r="BC55" s="52"/>
+      <c r="BD55" s="52"/>
+      <c r="BE55" s="52"/>
+      <c r="BF55" s="52"/>
+      <c r="BG55" s="52"/>
+      <c r="BH55" s="52"/>
+      <c r="BI55" s="52"/>
+      <c r="BJ55" s="52"/>
+      <c r="BK55" s="52"/>
+      <c r="BL55" s="52"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A56" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="B56" s="52">
+        <v>0</v>
+      </c>
+      <c r="C56" s="52">
+        <v>0</v>
+      </c>
+      <c r="D56" s="52">
+        <v>0</v>
+      </c>
+      <c r="E56" s="52">
+        <v>0</v>
+      </c>
+      <c r="F56" s="52">
+        <v>0</v>
+      </c>
+      <c r="G56" s="52">
+        <v>0</v>
+      </c>
+      <c r="H56" s="52">
+        <v>0</v>
+      </c>
+      <c r="I56" s="52">
+        <v>0</v>
+      </c>
+      <c r="J56" s="52">
+        <v>0</v>
+      </c>
+      <c r="K56" s="52">
+        <v>0</v>
+      </c>
+      <c r="L56" s="52">
+        <v>0</v>
+      </c>
+      <c r="M56" s="52">
+        <v>0</v>
+      </c>
+      <c r="N56" s="52">
+        <v>0</v>
+      </c>
+      <c r="O56" s="52">
+        <v>0</v>
+      </c>
+      <c r="P56" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="52">
+        <v>0</v>
+      </c>
+      <c r="R56" s="52">
+        <v>0</v>
+      </c>
+      <c r="S56" s="52">
+        <v>0</v>
+      </c>
+      <c r="T56" s="52">
+        <v>0</v>
+      </c>
+      <c r="U56" s="52">
+        <v>0</v>
+      </c>
+      <c r="V56" s="52">
+        <v>0</v>
+      </c>
+      <c r="W56" s="52">
+        <v>0</v>
+      </c>
+      <c r="X56" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="52"/>
+      <c r="AO56" s="52"/>
+      <c r="AP56" s="52"/>
+      <c r="AQ56" s="52"/>
+      <c r="AR56" s="52"/>
+      <c r="AS56" s="52"/>
+      <c r="AT56" s="52"/>
+      <c r="AU56" s="52"/>
+      <c r="AV56" s="52"/>
+      <c r="AW56" s="52"/>
+      <c r="AX56" s="52"/>
+      <c r="AY56" s="52"/>
+      <c r="AZ56" s="52"/>
+      <c r="BA56" s="52"/>
+      <c r="BB56" s="52"/>
+      <c r="BC56" s="52"/>
+      <c r="BD56" s="52"/>
+      <c r="BE56" s="52"/>
+      <c r="BF56" s="52"/>
+      <c r="BG56" s="52"/>
+      <c r="BH56" s="52"/>
+      <c r="BI56" s="52"/>
+      <c r="BJ56" s="52"/>
+      <c r="BK56" s="52"/>
+      <c r="BL56" s="52"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" s="52">
+        <v>0</v>
+      </c>
+      <c r="C57" s="52">
+        <v>0</v>
+      </c>
+      <c r="D57" s="52">
+        <v>0</v>
+      </c>
+      <c r="E57" s="52">
+        <v>0</v>
+      </c>
+      <c r="F57" s="52">
+        <v>0</v>
+      </c>
+      <c r="G57" s="52">
+        <v>0</v>
+      </c>
+      <c r="H57" s="52">
+        <v>0</v>
+      </c>
+      <c r="I57" s="52">
+        <v>0</v>
+      </c>
+      <c r="J57" s="52">
+        <v>0</v>
+      </c>
+      <c r="K57" s="52">
+        <v>0</v>
+      </c>
+      <c r="L57" s="52">
+        <v>0</v>
+      </c>
+      <c r="M57" s="52">
+        <v>0</v>
+      </c>
+      <c r="N57" s="52">
+        <v>0</v>
+      </c>
+      <c r="O57" s="52">
+        <v>0</v>
+      </c>
+      <c r="P57" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="52">
+        <v>0</v>
+      </c>
+      <c r="R57" s="52">
+        <v>0</v>
+      </c>
+      <c r="S57" s="52">
+        <v>0</v>
+      </c>
+      <c r="T57" s="52">
+        <v>0</v>
+      </c>
+      <c r="U57" s="52">
+        <v>0</v>
+      </c>
+      <c r="V57" s="52">
+        <v>0</v>
+      </c>
+      <c r="W57" s="52">
+        <v>0</v>
+      </c>
+      <c r="X57" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52"/>
+      <c r="AM57" s="52"/>
+      <c r="AN57" s="52"/>
+      <c r="AO57" s="52"/>
+      <c r="AP57" s="52"/>
+      <c r="AQ57" s="52"/>
+      <c r="AR57" s="52"/>
+      <c r="AS57" s="52"/>
+      <c r="AT57" s="52"/>
+      <c r="AU57" s="52"/>
+      <c r="AV57" s="52"/>
+      <c r="AW57" s="52"/>
+      <c r="AX57" s="52"/>
+      <c r="AY57" s="52"/>
+      <c r="AZ57" s="52"/>
+      <c r="BA57" s="52"/>
+      <c r="BB57" s="52"/>
+      <c r="BC57" s="52"/>
+      <c r="BD57" s="52"/>
+      <c r="BE57" s="52"/>
+      <c r="BF57" s="52"/>
+      <c r="BG57" s="52"/>
+      <c r="BH57" s="52"/>
+      <c r="BI57" s="52"/>
+      <c r="BJ57" s="52"/>
+      <c r="BK57" s="52"/>
+      <c r="BL57" s="52"/>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" s="60">
+        <f>B42*B25*10^9</f>
+        <v>1020500000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B60" s="60">
+        <f>SUM(E49:M51)</f>
+        <v>1041258260</v>
+      </c>
+      <c r="D60" s="59"/>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B62" s="61">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="52"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
+      <c r="AO63" s="52"/>
+      <c r="AP63" s="52"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="52"/>
+      <c r="AS63" s="52"/>
+      <c r="AT63" s="52"/>
+      <c r="AU63" s="52"/>
+      <c r="AV63" s="52"/>
+      <c r="AW63" s="52"/>
+      <c r="AX63" s="52"/>
+      <c r="AY63" s="52"/>
+      <c r="AZ63" s="52"/>
+      <c r="BA63" s="52"/>
+      <c r="BB63" s="52"/>
+      <c r="BC63" s="52"/>
+      <c r="BD63" s="52"/>
+      <c r="BE63" s="52"/>
+      <c r="BF63" s="52"/>
+      <c r="BG63" s="52"/>
+      <c r="BH63" s="52"/>
+      <c r="BI63" s="52"/>
+      <c r="BJ63" s="52"/>
+      <c r="BK63" s="52"/>
+      <c r="BL63" s="52"/>
+    </row>
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="52"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+      <c r="AM64" s="52"/>
+      <c r="AN64" s="52"/>
+      <c r="AO64" s="52"/>
+      <c r="AP64" s="52"/>
+      <c r="AQ64" s="52"/>
+      <c r="AR64" s="52"/>
+      <c r="AS64" s="52"/>
+      <c r="AT64" s="52"/>
+      <c r="AU64" s="52"/>
+      <c r="AV64" s="52"/>
+      <c r="AW64" s="52"/>
+      <c r="AX64" s="52"/>
+      <c r="AY64" s="52"/>
+      <c r="AZ64" s="52"/>
+      <c r="BA64" s="52"/>
+      <c r="BB64" s="52"/>
+      <c r="BC64" s="52"/>
+      <c r="BD64" s="52"/>
+      <c r="BE64" s="52"/>
+      <c r="BF64" s="52"/>
+      <c r="BG64" s="52"/>
+      <c r="BH64" s="52"/>
+      <c r="BI64" s="52"/>
+      <c r="BJ64" s="52"/>
+      <c r="BK64" s="52"/>
+      <c r="BL64" s="52"/>
+    </row>
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65" s="52">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="52">
+        <v>2021</v>
+      </c>
+      <c r="D65" s="59">
+        <v>2022</v>
+      </c>
+      <c r="E65" s="52">
+        <v>2023</v>
+      </c>
+      <c r="F65" s="52">
+        <v>2024</v>
+      </c>
+      <c r="G65" s="52">
+        <v>2025</v>
+      </c>
+      <c r="H65" s="52">
+        <v>2026</v>
+      </c>
+      <c r="I65" s="52">
+        <v>2027</v>
+      </c>
+      <c r="J65" s="52">
+        <v>2028</v>
+      </c>
+      <c r="K65" s="52">
+        <v>2029</v>
+      </c>
+      <c r="L65" s="52">
+        <v>2030</v>
+      </c>
+      <c r="M65" s="52">
+        <v>2031</v>
+      </c>
+      <c r="N65" s="52">
+        <v>2032</v>
+      </c>
+      <c r="O65" s="52">
+        <v>2033</v>
+      </c>
+      <c r="P65" s="52">
+        <v>2034</v>
+      </c>
+      <c r="Q65" s="52">
+        <v>2035</v>
+      </c>
+      <c r="R65" s="52">
+        <v>2036</v>
+      </c>
+      <c r="S65" s="52">
+        <v>2037</v>
+      </c>
+      <c r="T65" s="52">
+        <v>2038</v>
+      </c>
+      <c r="U65" s="52">
+        <v>2039</v>
+      </c>
+      <c r="V65" s="52">
+        <v>2040</v>
+      </c>
+      <c r="W65" s="52">
+        <v>2041</v>
+      </c>
+      <c r="X65" s="52">
+        <v>2042</v>
+      </c>
+      <c r="Y65" s="52">
+        <v>2043</v>
+      </c>
+      <c r="Z65" s="52">
+        <v>2044</v>
+      </c>
+      <c r="AA65" s="52">
+        <v>2045</v>
+      </c>
+      <c r="AB65" s="52">
+        <v>2046</v>
+      </c>
+      <c r="AC65" s="52">
+        <v>2047</v>
+      </c>
+      <c r="AD65" s="52">
+        <v>2048</v>
+      </c>
+      <c r="AE65" s="52">
+        <v>2049</v>
+      </c>
+      <c r="AF65" s="52">
+        <v>2050</v>
+      </c>
+      <c r="AG65" s="52"/>
+      <c r="AH65" s="52"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="52"/>
+      <c r="AL65" s="52"/>
+      <c r="AM65" s="52"/>
+      <c r="AN65" s="52"/>
+      <c r="AO65" s="52"/>
+      <c r="AP65" s="52"/>
+      <c r="AQ65" s="52"/>
+      <c r="AR65" s="52"/>
+      <c r="AS65" s="52"/>
+      <c r="AT65" s="52"/>
+      <c r="AU65" s="52"/>
+      <c r="AV65" s="52"/>
+      <c r="AW65" s="52"/>
+      <c r="AX65" s="52"/>
+      <c r="AY65" s="52"/>
+      <c r="AZ65" s="52"/>
+      <c r="BA65" s="52"/>
+      <c r="BB65" s="52"/>
+      <c r="BC65" s="52"/>
+      <c r="BD65" s="52"/>
+      <c r="BE65" s="52"/>
+      <c r="BF65" s="52"/>
+      <c r="BG65" s="52"/>
+      <c r="BH65" s="52"/>
+      <c r="BI65" s="52"/>
+      <c r="BJ65" s="52"/>
+      <c r="BK65" s="52"/>
+      <c r="BL65" s="52"/>
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66" s="52">
+        <v>0</v>
+      </c>
+      <c r="C66" s="52">
+        <v>0</v>
+      </c>
+      <c r="D66" s="60">
+        <v>0</v>
+      </c>
+      <c r="E66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="F66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="G66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="H66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="I66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="J66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="K66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="L66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="M66" s="60">
+        <v>55641300</v>
+      </c>
+      <c r="N66" s="60">
+        <v>0</v>
+      </c>
+      <c r="O66" s="60">
+        <v>0</v>
+      </c>
+      <c r="P66" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="60">
+        <v>0</v>
+      </c>
+      <c r="R66" s="60">
+        <v>0</v>
+      </c>
+      <c r="S66" s="60">
+        <v>0</v>
+      </c>
+      <c r="T66" s="60">
+        <v>0</v>
+      </c>
+      <c r="U66" s="60">
+        <v>0</v>
+      </c>
+      <c r="V66" s="60">
+        <v>0</v>
+      </c>
+      <c r="W66" s="60">
+        <v>0</v>
+      </c>
+      <c r="X66" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="60"/>
+      <c r="AH66" s="60"/>
+      <c r="AI66" s="60"/>
+      <c r="AJ66" s="60"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="60"/>
+      <c r="AM66" s="60"/>
+      <c r="AN66" s="60"/>
+      <c r="AO66" s="60"/>
+      <c r="AP66" s="60"/>
+      <c r="AQ66" s="60"/>
+      <c r="AR66" s="60"/>
+      <c r="AS66" s="60"/>
+      <c r="AT66" s="60"/>
+      <c r="AU66" s="60"/>
+      <c r="AV66" s="60"/>
+      <c r="AW66" s="60"/>
+      <c r="AX66" s="60"/>
+      <c r="AY66" s="60"/>
+      <c r="AZ66" s="60"/>
+      <c r="BA66" s="60"/>
+      <c r="BB66" s="60"/>
+      <c r="BC66" s="60"/>
+      <c r="BD66" s="60"/>
+      <c r="BE66" s="60"/>
+      <c r="BF66" s="60"/>
+      <c r="BG66" s="60"/>
+      <c r="BH66" s="60"/>
+      <c r="BI66" s="60"/>
+      <c r="BJ66" s="60"/>
+      <c r="BK66" s="60"/>
+      <c r="BL66" s="60"/>
+    </row>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" s="52">
+        <v>0</v>
+      </c>
+      <c r="C67" s="52">
+        <v>0</v>
+      </c>
+      <c r="D67" s="60">
+        <v>0</v>
+      </c>
+      <c r="E67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="F67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="G67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="H67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="I67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="J67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="K67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="L67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="M67" s="60">
+        <v>69289100</v>
+      </c>
+      <c r="N67" s="60">
+        <v>0</v>
+      </c>
+      <c r="O67" s="60">
+        <v>0</v>
+      </c>
+      <c r="P67" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="60">
+        <v>0</v>
+      </c>
+      <c r="R67" s="60">
+        <v>0</v>
+      </c>
+      <c r="S67" s="60">
+        <v>0</v>
+      </c>
+      <c r="T67" s="60">
+        <v>0</v>
+      </c>
+      <c r="U67" s="60">
+        <v>0</v>
+      </c>
+      <c r="V67" s="60">
+        <v>0</v>
+      </c>
+      <c r="W67" s="60">
+        <v>0</v>
+      </c>
+      <c r="X67" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="52"/>
+      <c r="AH67" s="52"/>
+      <c r="AI67" s="52"/>
+      <c r="AJ67" s="52"/>
+      <c r="AK67" s="52"/>
+      <c r="AL67" s="52"/>
+      <c r="AM67" s="52"/>
+      <c r="AN67" s="52"/>
+      <c r="AO67" s="52"/>
+      <c r="AP67" s="52"/>
+      <c r="AQ67" s="52"/>
+      <c r="AR67" s="52"/>
+      <c r="AS67" s="52"/>
+      <c r="AT67" s="52"/>
+      <c r="AU67" s="52"/>
+      <c r="AV67" s="52"/>
+      <c r="AW67" s="52"/>
+      <c r="AX67" s="52"/>
+      <c r="AY67" s="52"/>
+      <c r="AZ67" s="52"/>
+      <c r="BA67" s="52"/>
+      <c r="BB67" s="52"/>
+      <c r="BC67" s="52"/>
+      <c r="BD67" s="52"/>
+      <c r="BE67" s="52"/>
+      <c r="BF67" s="52"/>
+      <c r="BG67" s="52"/>
+      <c r="BH67" s="52"/>
+      <c r="BI67" s="52"/>
+      <c r="BJ67" s="52"/>
+      <c r="BK67" s="52"/>
+      <c r="BL67" s="52"/>
+    </row>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68" s="52">
+        <v>0</v>
+      </c>
+      <c r="C68" s="52">
+        <v>0</v>
+      </c>
+      <c r="D68" s="60">
+        <v>0</v>
+      </c>
+      <c r="E68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="F68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="G68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="H68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="I68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="J68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="K68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="L68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="M68" s="60">
+        <v>6299010</v>
+      </c>
+      <c r="N68" s="60">
+        <v>0</v>
+      </c>
+      <c r="O68" s="60">
+        <v>0</v>
+      </c>
+      <c r="P68" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="60">
+        <v>0</v>
+      </c>
+      <c r="R68" s="60">
+        <v>0</v>
+      </c>
+      <c r="S68" s="60">
+        <v>0</v>
+      </c>
+      <c r="T68" s="60">
+        <v>0</v>
+      </c>
+      <c r="U68" s="60">
+        <v>0</v>
+      </c>
+      <c r="V68" s="60">
+        <v>0</v>
+      </c>
+      <c r="W68" s="60">
+        <v>0</v>
+      </c>
+      <c r="X68" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+      <c r="AM68" s="52"/>
+      <c r="AN68" s="52"/>
+      <c r="AO68" s="52"/>
+      <c r="AP68" s="52"/>
+      <c r="AQ68" s="52"/>
+      <c r="AR68" s="52"/>
+      <c r="AS68" s="52"/>
+      <c r="AT68" s="52"/>
+      <c r="AU68" s="52"/>
+      <c r="AV68" s="52"/>
+      <c r="AW68" s="52"/>
+      <c r="AX68" s="52"/>
+      <c r="AY68" s="52"/>
+      <c r="AZ68" s="52"/>
+      <c r="BA68" s="52"/>
+      <c r="BB68" s="52"/>
+      <c r="BC68" s="52"/>
+      <c r="BD68" s="52"/>
+      <c r="BE68" s="52"/>
+      <c r="BF68" s="52"/>
+      <c r="BG68" s="52"/>
+      <c r="BH68" s="52"/>
+      <c r="BI68" s="52"/>
+      <c r="BJ68" s="52"/>
+      <c r="BK68" s="52"/>
+      <c r="BL68" s="52"/>
+    </row>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" s="52">
+        <v>0</v>
+      </c>
+      <c r="C69" s="52">
+        <v>0</v>
+      </c>
+      <c r="D69" s="52">
+        <v>0</v>
+      </c>
+      <c r="E69" s="52">
+        <v>0</v>
+      </c>
+      <c r="F69" s="52">
+        <v>0</v>
+      </c>
+      <c r="G69" s="52">
+        <v>0</v>
+      </c>
+      <c r="H69" s="52">
+        <v>0</v>
+      </c>
+      <c r="I69" s="52">
+        <v>0</v>
+      </c>
+      <c r="J69" s="52">
+        <v>0</v>
+      </c>
+      <c r="K69" s="52">
+        <v>0</v>
+      </c>
+      <c r="L69" s="52">
+        <v>0</v>
+      </c>
+      <c r="M69" s="52">
+        <v>0</v>
+      </c>
+      <c r="N69" s="52">
+        <v>0</v>
+      </c>
+      <c r="O69" s="52">
+        <v>0</v>
+      </c>
+      <c r="P69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="52">
+        <v>0</v>
+      </c>
+      <c r="R69" s="52">
+        <v>0</v>
+      </c>
+      <c r="S69" s="52">
+        <v>0</v>
+      </c>
+      <c r="T69" s="52">
+        <v>0</v>
+      </c>
+      <c r="U69" s="52">
+        <v>0</v>
+      </c>
+      <c r="V69" s="52">
+        <v>0</v>
+      </c>
+      <c r="W69" s="52">
+        <v>0</v>
+      </c>
+      <c r="X69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="52"/>
+      <c r="AH69" s="52"/>
+      <c r="AI69" s="52"/>
+      <c r="AJ69" s="52"/>
+      <c r="AK69" s="52"/>
+      <c r="AL69" s="52"/>
+      <c r="AM69" s="52"/>
+      <c r="AN69" s="52"/>
+      <c r="AO69" s="52"/>
+      <c r="AP69" s="52"/>
+      <c r="AQ69" s="52"/>
+      <c r="AR69" s="52"/>
+      <c r="AS69" s="52"/>
+      <c r="AT69" s="52"/>
+      <c r="AU69" s="52"/>
+      <c r="AV69" s="52"/>
+      <c r="AW69" s="52"/>
+      <c r="AX69" s="52"/>
+      <c r="AY69" s="52"/>
+      <c r="AZ69" s="52"/>
+      <c r="BA69" s="52"/>
+      <c r="BB69" s="52"/>
+      <c r="BC69" s="52"/>
+      <c r="BD69" s="52"/>
+      <c r="BE69" s="52"/>
+      <c r="BF69" s="52"/>
+      <c r="BG69" s="52"/>
+      <c r="BH69" s="52"/>
+      <c r="BI69" s="52"/>
+      <c r="BJ69" s="52"/>
+      <c r="BK69" s="52"/>
+      <c r="BL69" s="52"/>
+    </row>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A70" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" s="52">
+        <v>0</v>
+      </c>
+      <c r="C70" s="52">
+        <v>0</v>
+      </c>
+      <c r="D70" s="52">
+        <v>0</v>
+      </c>
+      <c r="E70" s="52">
+        <v>0</v>
+      </c>
+      <c r="F70" s="52">
+        <v>0</v>
+      </c>
+      <c r="G70" s="52">
+        <v>0</v>
+      </c>
+      <c r="H70" s="52">
+        <v>0</v>
+      </c>
+      <c r="I70" s="52">
+        <v>0</v>
+      </c>
+      <c r="J70" s="52">
+        <v>0</v>
+      </c>
+      <c r="K70" s="52">
+        <v>0</v>
+      </c>
+      <c r="L70" s="52">
+        <v>0</v>
+      </c>
+      <c r="M70" s="52">
+        <v>0</v>
+      </c>
+      <c r="N70" s="52">
+        <v>0</v>
+      </c>
+      <c r="O70" s="52">
+        <v>0</v>
+      </c>
+      <c r="P70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="52">
+        <v>0</v>
+      </c>
+      <c r="R70" s="52">
+        <v>0</v>
+      </c>
+      <c r="S70" s="52">
+        <v>0</v>
+      </c>
+      <c r="T70" s="52">
+        <v>0</v>
+      </c>
+      <c r="U70" s="52">
+        <v>0</v>
+      </c>
+      <c r="V70" s="52">
+        <v>0</v>
+      </c>
+      <c r="W70" s="52">
+        <v>0</v>
+      </c>
+      <c r="X70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52"/>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
+      <c r="AO70" s="52"/>
+      <c r="AP70" s="52"/>
+      <c r="AQ70" s="52"/>
+      <c r="AR70" s="52"/>
+      <c r="AS70" s="52"/>
+      <c r="AT70" s="52"/>
+      <c r="AU70" s="52"/>
+      <c r="AV70" s="52"/>
+      <c r="AW70" s="52"/>
+      <c r="AX70" s="52"/>
+      <c r="AY70" s="52"/>
+      <c r="AZ70" s="52"/>
+      <c r="BA70" s="52"/>
+      <c r="BB70" s="52"/>
+      <c r="BC70" s="52"/>
+      <c r="BD70" s="52"/>
+      <c r="BE70" s="52"/>
+      <c r="BF70" s="52"/>
+      <c r="BG70" s="52"/>
+      <c r="BH70" s="52"/>
+      <c r="BI70" s="52"/>
+      <c r="BJ70" s="52"/>
+      <c r="BK70" s="52"/>
+      <c r="BL70" s="52"/>
+    </row>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71" s="52">
+        <v>0</v>
+      </c>
+      <c r="C71" s="52">
+        <v>0</v>
+      </c>
+      <c r="D71" s="52">
+        <v>0</v>
+      </c>
+      <c r="E71" s="52">
+        <v>0</v>
+      </c>
+      <c r="F71" s="52">
+        <v>0</v>
+      </c>
+      <c r="G71" s="52">
+        <v>0</v>
+      </c>
+      <c r="H71" s="52">
+        <v>0</v>
+      </c>
+      <c r="I71" s="52">
+        <v>0</v>
+      </c>
+      <c r="J71" s="52">
+        <v>0</v>
+      </c>
+      <c r="K71" s="52">
+        <v>0</v>
+      </c>
+      <c r="L71" s="52">
+        <v>0</v>
+      </c>
+      <c r="M71" s="52">
+        <v>0</v>
+      </c>
+      <c r="N71" s="52">
+        <v>0</v>
+      </c>
+      <c r="O71" s="52">
+        <v>0</v>
+      </c>
+      <c r="P71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="52">
+        <v>0</v>
+      </c>
+      <c r="R71" s="52">
+        <v>0</v>
+      </c>
+      <c r="S71" s="52">
+        <v>0</v>
+      </c>
+      <c r="T71" s="52">
+        <v>0</v>
+      </c>
+      <c r="U71" s="52">
+        <v>0</v>
+      </c>
+      <c r="V71" s="52">
+        <v>0</v>
+      </c>
+      <c r="W71" s="52">
+        <v>0</v>
+      </c>
+      <c r="X71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="52"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="52"/>
+      <c r="AL71" s="52"/>
+      <c r="AM71" s="52"/>
+      <c r="AN71" s="52"/>
+      <c r="AO71" s="52"/>
+      <c r="AP71" s="52"/>
+      <c r="AQ71" s="52"/>
+      <c r="AR71" s="52"/>
+      <c r="AS71" s="52"/>
+      <c r="AT71" s="52"/>
+      <c r="AU71" s="52"/>
+      <c r="AV71" s="52"/>
+      <c r="AW71" s="52"/>
+      <c r="AX71" s="52"/>
+      <c r="AY71" s="52"/>
+      <c r="AZ71" s="52"/>
+      <c r="BA71" s="52"/>
+      <c r="BB71" s="52"/>
+      <c r="BC71" s="52"/>
+      <c r="BD71" s="52"/>
+      <c r="BE71" s="52"/>
+      <c r="BF71" s="52"/>
+      <c r="BG71" s="52"/>
+      <c r="BH71" s="52"/>
+      <c r="BI71" s="52"/>
+      <c r="BJ71" s="52"/>
+      <c r="BK71" s="52"/>
+      <c r="BL71" s="52"/>
+    </row>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="52">
+        <v>0</v>
+      </c>
+      <c r="C72" s="52">
+        <v>0</v>
+      </c>
+      <c r="D72" s="52">
+        <v>0</v>
+      </c>
+      <c r="E72" s="52">
+        <v>0</v>
+      </c>
+      <c r="F72" s="52">
+        <v>0</v>
+      </c>
+      <c r="G72" s="52">
+        <v>0</v>
+      </c>
+      <c r="H72" s="52">
+        <v>0</v>
+      </c>
+      <c r="I72" s="52">
+        <v>0</v>
+      </c>
+      <c r="J72" s="52">
+        <v>0</v>
+      </c>
+      <c r="K72" s="52">
+        <v>0</v>
+      </c>
+      <c r="L72" s="52">
+        <v>0</v>
+      </c>
+      <c r="M72" s="52">
+        <v>0</v>
+      </c>
+      <c r="N72" s="52">
+        <v>0</v>
+      </c>
+      <c r="O72" s="52">
+        <v>0</v>
+      </c>
+      <c r="P72" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="52">
+        <v>0</v>
+      </c>
+      <c r="R72" s="52">
+        <v>0</v>
+      </c>
+      <c r="S72" s="52">
+        <v>0</v>
+      </c>
+      <c r="T72" s="52">
+        <v>0</v>
+      </c>
+      <c r="U72" s="52">
+        <v>0</v>
+      </c>
+      <c r="V72" s="52">
+        <v>0</v>
+      </c>
+      <c r="W72" s="52">
+        <v>0</v>
+      </c>
+      <c r="X72" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="52"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+      <c r="AM72" s="52"/>
+      <c r="AN72" s="52"/>
+      <c r="AO72" s="52"/>
+      <c r="AP72" s="52"/>
+      <c r="AQ72" s="52"/>
+      <c r="AR72" s="52"/>
+      <c r="AS72" s="52"/>
+      <c r="AT72" s="52"/>
+      <c r="AU72" s="52"/>
+      <c r="AV72" s="52"/>
+      <c r="AW72" s="52"/>
+      <c r="AX72" s="52"/>
+      <c r="AY72" s="52"/>
+      <c r="AZ72" s="52"/>
+      <c r="BA72" s="52"/>
+      <c r="BB72" s="52"/>
+      <c r="BC72" s="52"/>
+      <c r="BD72" s="52"/>
+      <c r="BE72" s="52"/>
+      <c r="BF72" s="52"/>
+      <c r="BG72" s="52"/>
+      <c r="BH72" s="52"/>
+      <c r="BI72" s="52"/>
+      <c r="BJ72" s="52"/>
+      <c r="BK72" s="52"/>
+      <c r="BL72" s="52"/>
+    </row>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" s="52">
+        <v>0</v>
+      </c>
+      <c r="C73" s="52">
+        <v>0</v>
+      </c>
+      <c r="D73" s="52">
+        <v>0</v>
+      </c>
+      <c r="E73" s="52">
+        <v>0</v>
+      </c>
+      <c r="F73" s="52">
+        <v>0</v>
+      </c>
+      <c r="G73" s="52">
+        <v>0</v>
+      </c>
+      <c r="H73" s="52">
+        <v>0</v>
+      </c>
+      <c r="I73" s="52">
+        <v>0</v>
+      </c>
+      <c r="J73" s="52">
+        <v>0</v>
+      </c>
+      <c r="K73" s="52">
+        <v>0</v>
+      </c>
+      <c r="L73" s="52">
+        <v>0</v>
+      </c>
+      <c r="M73" s="52">
+        <v>0</v>
+      </c>
+      <c r="N73" s="52">
+        <v>0</v>
+      </c>
+      <c r="O73" s="52">
+        <v>0</v>
+      </c>
+      <c r="P73" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="52">
+        <v>0</v>
+      </c>
+      <c r="R73" s="52">
+        <v>0</v>
+      </c>
+      <c r="S73" s="52">
+        <v>0</v>
+      </c>
+      <c r="T73" s="52">
+        <v>0</v>
+      </c>
+      <c r="U73" s="52">
+        <v>0</v>
+      </c>
+      <c r="V73" s="52">
+        <v>0</v>
+      </c>
+      <c r="W73" s="52">
+        <v>0</v>
+      </c>
+      <c r="X73" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="52"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+      <c r="AM73" s="52"/>
+      <c r="AN73" s="52"/>
+      <c r="AO73" s="52"/>
+      <c r="AP73" s="52"/>
+      <c r="AQ73" s="52"/>
+      <c r="AR73" s="52"/>
+      <c r="AS73" s="52"/>
+      <c r="AT73" s="52"/>
+      <c r="AU73" s="52"/>
+      <c r="AV73" s="52"/>
+      <c r="AW73" s="52"/>
+      <c r="AX73" s="52"/>
+      <c r="AY73" s="52"/>
+      <c r="AZ73" s="52"/>
+      <c r="BA73" s="52"/>
+      <c r="BB73" s="52"/>
+      <c r="BC73" s="52"/>
+      <c r="BD73" s="52"/>
+      <c r="BE73" s="52"/>
+      <c r="BF73" s="52"/>
+      <c r="BG73" s="52"/>
+      <c r="BH73" s="52"/>
+      <c r="BI73" s="52"/>
+      <c r="BJ73" s="52"/>
+      <c r="BK73" s="52"/>
+      <c r="BL73" s="52"/>
+    </row>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A74" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74" s="52">
+        <v>0</v>
+      </c>
+      <c r="C74" s="52">
+        <v>0</v>
+      </c>
+      <c r="D74" s="52">
+        <v>0</v>
+      </c>
+      <c r="E74" s="52">
+        <v>0</v>
+      </c>
+      <c r="F74" s="52">
+        <v>0</v>
+      </c>
+      <c r="G74" s="52">
+        <v>0</v>
+      </c>
+      <c r="H74" s="52">
+        <v>0</v>
+      </c>
+      <c r="I74" s="52">
+        <v>0</v>
+      </c>
+      <c r="J74" s="52">
+        <v>0</v>
+      </c>
+      <c r="K74" s="52">
+        <v>0</v>
+      </c>
+      <c r="L74" s="52">
+        <v>0</v>
+      </c>
+      <c r="M74" s="52">
+        <v>0</v>
+      </c>
+      <c r="N74" s="52">
+        <v>0</v>
+      </c>
+      <c r="O74" s="52">
+        <v>0</v>
+      </c>
+      <c r="P74" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="52">
+        <v>0</v>
+      </c>
+      <c r="R74" s="52">
+        <v>0</v>
+      </c>
+      <c r="S74" s="52">
+        <v>0</v>
+      </c>
+      <c r="T74" s="52">
+        <v>0</v>
+      </c>
+      <c r="U74" s="52">
+        <v>0</v>
+      </c>
+      <c r="V74" s="52">
+        <v>0</v>
+      </c>
+      <c r="W74" s="52">
+        <v>0</v>
+      </c>
+      <c r="X74" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="52"/>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+      <c r="AM74" s="52"/>
+      <c r="AN74" s="52"/>
+      <c r="AO74" s="52"/>
+      <c r="AP74" s="52"/>
+      <c r="AQ74" s="52"/>
+      <c r="AR74" s="52"/>
+      <c r="AS74" s="52"/>
+      <c r="AT74" s="52"/>
+      <c r="AU74" s="52"/>
+      <c r="AV74" s="52"/>
+      <c r="AW74" s="52"/>
+      <c r="AX74" s="52"/>
+      <c r="AY74" s="52"/>
+      <c r="AZ74" s="52"/>
+      <c r="BA74" s="52"/>
+      <c r="BB74" s="52"/>
+      <c r="BC74" s="52"/>
+      <c r="BD74" s="52"/>
+      <c r="BE74" s="52"/>
+      <c r="BF74" s="52"/>
+      <c r="BG74" s="52"/>
+      <c r="BH74" s="52"/>
+      <c r="BI74" s="52"/>
+      <c r="BJ74" s="52"/>
+      <c r="BK74" s="52"/>
+      <c r="BL74" s="52"/>
+    </row>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B76" s="60">
+        <f>B43*B25*10^9</f>
+        <v>1177500000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A77" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="60">
+        <f>SUM(E66:M68)</f>
+        <v>1181064690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A79" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" s="53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2020</v>
+      </c>
+      <c r="C83">
+        <v>2021</v>
+      </c>
+      <c r="D83">
+        <v>2022</v>
+      </c>
+      <c r="E83">
+        <v>2023</v>
+      </c>
+      <c r="F83">
+        <v>2024</v>
+      </c>
+      <c r="G83">
+        <v>2025</v>
+      </c>
+      <c r="H83">
+        <v>2026</v>
+      </c>
+      <c r="I83">
+        <v>2027</v>
+      </c>
+      <c r="J83">
+        <v>2028</v>
+      </c>
+      <c r="K83">
+        <v>2029</v>
+      </c>
+      <c r="L83">
+        <v>2030</v>
+      </c>
+      <c r="M83">
+        <v>2031</v>
+      </c>
+      <c r="N83">
+        <v>2032</v>
+      </c>
+      <c r="O83">
+        <v>2033</v>
+      </c>
+      <c r="P83">
+        <v>2034</v>
+      </c>
+      <c r="Q83">
+        <v>2035</v>
+      </c>
+      <c r="R83">
+        <v>2036</v>
+      </c>
+      <c r="S83">
+        <v>2037</v>
+      </c>
+      <c r="T83">
+        <v>2038</v>
+      </c>
+      <c r="U83">
+        <v>2039</v>
+      </c>
+      <c r="V83">
+        <v>2040</v>
+      </c>
+      <c r="W83">
+        <v>2041</v>
+      </c>
+      <c r="X83">
+        <v>2042</v>
+      </c>
+      <c r="Y83">
+        <v>2043</v>
+      </c>
+      <c r="Z83">
+        <v>2044</v>
+      </c>
+      <c r="AA83">
+        <v>2045</v>
+      </c>
+      <c r="AB83">
+        <v>2046</v>
+      </c>
+      <c r="AC83">
+        <v>2047</v>
+      </c>
+      <c r="AD83">
+        <v>2048</v>
+      </c>
+      <c r="AE83">
+        <v>2049</v>
+      </c>
+      <c r="AF83">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="61">
+        <f>$M$84/9+D84</f>
+        <v>5.2222222222222218E-3</v>
+      </c>
+      <c r="F84" s="61">
+        <f t="shared" ref="F84:L84" si="2">$M$84/9+E84</f>
+        <v>1.0444444444444444E-2</v>
+      </c>
+      <c r="G84" s="61">
+        <f t="shared" si="2"/>
+        <v>1.5666666666666666E-2</v>
+      </c>
+      <c r="H84" s="61">
+        <f t="shared" si="2"/>
+        <v>2.0888888888888887E-2</v>
+      </c>
+      <c r="I84" s="61">
+        <f t="shared" si="2"/>
+        <v>2.6111111111111109E-2</v>
+      </c>
+      <c r="J84" s="61">
+        <f t="shared" si="2"/>
+        <v>3.1333333333333331E-2</v>
+      </c>
+      <c r="K84" s="61">
+        <f t="shared" si="2"/>
+        <v>3.6555555555555549E-2</v>
+      </c>
+      <c r="L84" s="61">
+        <f t="shared" si="2"/>
+        <v>4.1777777777777775E-2</v>
+      </c>
+      <c r="M84" s="63">
+        <f>B62</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="N84" s="60">
+        <v>0</v>
+      </c>
+      <c r="O84" s="60">
+        <v>0</v>
+      </c>
+      <c r="P84" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="60">
+        <v>0</v>
+      </c>
+      <c r="R84" s="60">
+        <v>0</v>
+      </c>
+      <c r="S84" s="60">
+        <v>0</v>
+      </c>
+      <c r="T84" s="60">
+        <v>0</v>
+      </c>
+      <c r="U84" s="60">
+        <v>0</v>
+      </c>
+      <c r="V84" s="60">
+        <v>0</v>
+      </c>
+      <c r="W84" s="60">
+        <v>0</v>
+      </c>
+      <c r="X84" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="61">
+        <f>$M$85/9+D85</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F85" s="61">
+        <f t="shared" ref="F85:L85" si="3">$M$85/9+E85</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G85" s="61">
+        <f t="shared" si="3"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H85" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="I85" s="61">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="J85" s="61">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K85" s="61">
+        <f t="shared" si="3"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L85" s="61">
+        <f t="shared" si="3"/>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="M85" s="64">
+        <f>B79</f>
+        <v>0.4</v>
+      </c>
+      <c r="N85" s="62">
+        <f>M85-$M$85/4</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O85" s="62">
+        <f t="shared" ref="O85:Q85" si="4">N85-$M$85/4</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="P85" s="62">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="Q85" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="60">
+        <v>0</v>
+      </c>
+      <c r="S85" s="60">
+        <v>0</v>
+      </c>
+      <c r="T85" s="60">
+        <v>0</v>
+      </c>
+      <c r="U85" s="60">
+        <v>0</v>
+      </c>
+      <c r="V85" s="60">
+        <v>0</v>
+      </c>
+      <c r="W85" s="60">
+        <v>0</v>
+      </c>
+      <c r="X85" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="60">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="60"/>
+      <c r="AA86" s="60"/>
+      <c r="AB86" s="60"/>
+      <c r="AC86" s="60"/>
+      <c r="AD86" s="60"/>
+      <c r="AE86" s="60"/>
+      <c r="AF86" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -22063,16 +26917,16 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AF7"/>
+      <selection activeCell="B1" sqref="B1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" customWidth="1"/>
-    <col min="2" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -22170,7 +27024,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -22299,265 +27153,265 @@
         <v>136290</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <f>TNC_summary!$C$9</f>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!B85</f>
         <v>3554041.2119197226</v>
       </c>
       <c r="C3" s="3">
-        <f>TNC_summary!$C$9</f>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!C85</f>
         <v>3554041.2119197226</v>
       </c>
       <c r="D3" s="3">
-        <f>TNC_summary!$C$9</f>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!D85</f>
         <v>3554041.2119197226</v>
       </c>
       <c r="E3" s="3">
-        <f>TNC_summary!$C$9</f>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!E85</f>
+        <v>3396083.8247232903</v>
+      </c>
+      <c r="F3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!F85</f>
+        <v>3238126.4375268584</v>
+      </c>
+      <c r="G3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!G85</f>
+        <v>3080169.0503304261</v>
+      </c>
+      <c r="H3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!H85</f>
+        <v>2922211.6631339942</v>
+      </c>
+      <c r="I3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!I85</f>
+        <v>2764254.2759375619</v>
+      </c>
+      <c r="J3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!J85</f>
+        <v>2606296.88874113</v>
+      </c>
+      <c r="K3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!K85</f>
+        <v>2448339.5015446977</v>
+      </c>
+      <c r="L3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!L85</f>
+        <v>2290382.1143482653</v>
+      </c>
+      <c r="M3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!M85</f>
+        <v>2132424.7271518335</v>
+      </c>
+      <c r="N3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!N85</f>
+        <v>2487828.8483438054</v>
+      </c>
+      <c r="O3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!O85</f>
+        <v>2843232.9695357778</v>
+      </c>
+      <c r="P3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!P85</f>
+        <v>3198637.0907277502</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Q85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="F3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="R3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!R85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="G3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="S3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!S85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="H3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="T3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!T85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="I3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="U3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!U85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="J3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="V3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!V85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="K3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="W3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!W85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="L3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="X3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!X85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="M3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="Y3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Y85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="N3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="Z3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Z85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="O3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="AA3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AA85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="P3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="AB3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AB85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="Q3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="AC3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AC85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="R3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="AD3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AD85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="S3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="AE3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AE85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="T3" s="3">
-        <f>TNC_summary!$C$9</f>
+      <c r="AF3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AF85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="U3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="V3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="W3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="X3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="Y3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="Z3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="AA3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="AB3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="AC3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="AD3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="AE3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="AF3" s="3">
-        <f>TNC_summary!$C$9</f>
-        <v>3554041.2119197226</v>
-      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!B84</f>
         <v>265800000</v>
       </c>
       <c r="C4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!C84</f>
         <v>265800000</v>
       </c>
       <c r="D4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!D84</f>
         <v>265800000</v>
       </c>
       <c r="E4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!E84</f>
+        <v>264411933.33333334</v>
+      </c>
+      <c r="F4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!F84</f>
+        <v>263023866.66666666</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!G84</f>
+        <v>261635800</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!H84</f>
+        <v>260247733.33333334</v>
+      </c>
+      <c r="I4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!I84</f>
+        <v>258859666.66666666</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!J84</f>
+        <v>257471600</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!K84</f>
+        <v>256083533.33333334</v>
+      </c>
+      <c r="L4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!L84</f>
+        <v>254695466.66666666</v>
+      </c>
+      <c r="M4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!M84</f>
+        <v>253307400</v>
+      </c>
+      <c r="N4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!N84</f>
         <v>265800000</v>
       </c>
-      <c r="F4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="O4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!O84</f>
         <v>265800000</v>
       </c>
-      <c r="G4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="P4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!P84</f>
         <v>265800000</v>
       </c>
-      <c r="H4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="Q4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Q84</f>
         <v>265800000</v>
       </c>
-      <c r="I4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="R4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!R84</f>
         <v>265800000</v>
       </c>
-      <c r="J4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="S4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!S84</f>
         <v>265800000</v>
       </c>
-      <c r="K4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="T4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!T84</f>
         <v>265800000</v>
       </c>
-      <c r="L4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="U4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!U84</f>
         <v>265800000</v>
       </c>
-      <c r="M4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="V4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!V84</f>
         <v>265800000</v>
       </c>
-      <c r="N4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="W4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!W84</f>
         <v>265800000</v>
       </c>
-      <c r="O4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="X4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!X84</f>
         <v>265800000</v>
       </c>
-      <c r="P4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="Y4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Y84</f>
         <v>265800000</v>
       </c>
-      <c r="Q4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="Z4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Z84</f>
         <v>265800000</v>
       </c>
-      <c r="R4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="AA4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AA84</f>
         <v>265800000</v>
       </c>
-      <c r="S4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="AB4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AB84</f>
         <v>265800000</v>
       </c>
-      <c r="T4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="AC4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AC84</f>
         <v>265800000</v>
       </c>
-      <c r="U4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="AD4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AD84</f>
         <v>265800000</v>
       </c>
-      <c r="V4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="AE4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AE84</f>
         <v>265800000</v>
       </c>
-      <c r="W4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
+      <c r="AF4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AF84</f>
         <v>265800000</v>
       </c>
-      <c r="X4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="Y4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="Z4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="AA4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="AB4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="AC4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="AD4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="AE4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
-      <c r="AF4" s="3">
-        <f>'Impr Forest Mgmt'!$A29</f>
-        <v>265800000</v>
-      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22686,7 +27540,7 @@
         <v>187905.59808789165</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22813,7 +27667,7 @@
         <v>116927.89655172414</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1502825-F36D-4CA2-A1B9-AB1796547897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6564BA-F8DD-45FD-9F42-8DE559DBDAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1540,8 +1540,6 @@
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1671,9 +1669,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1711,9 +1709,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,26 +1744,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1798,26 +1779,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1993,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -22276,8 +22240,8 @@
   </sheetPr>
   <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="M74" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:AF85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26667,97 +26631,88 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" s="61">
-        <f>$M$84/9+D84</f>
-        <v>5.2222222222222218E-3</v>
-      </c>
-      <c r="F84" s="61">
-        <f t="shared" ref="F84:L84" si="2">$M$84/9+E84</f>
-        <v>1.0444444444444444E-2</v>
-      </c>
-      <c r="G84" s="61">
-        <f t="shared" si="2"/>
-        <v>1.5666666666666666E-2</v>
-      </c>
-      <c r="H84" s="61">
-        <f t="shared" si="2"/>
-        <v>2.0888888888888887E-2</v>
-      </c>
-      <c r="I84" s="61">
-        <f t="shared" si="2"/>
-        <v>2.6111111111111109E-2</v>
-      </c>
-      <c r="J84" s="61">
-        <f t="shared" si="2"/>
-        <v>3.1333333333333331E-2</v>
-      </c>
-      <c r="K84" s="61">
-        <f t="shared" si="2"/>
-        <v>3.6555555555555549E-2</v>
-      </c>
-      <c r="L84" s="61">
-        <f t="shared" si="2"/>
-        <v>4.1777777777777775E-2</v>
-      </c>
-      <c r="M84" s="63">
-        <f>B62</f>
-        <v>4.7E-2</v>
-      </c>
-      <c r="N84" s="60">
-        <v>0</v>
-      </c>
-      <c r="O84" s="60">
-        <v>0</v>
-      </c>
-      <c r="P84" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="60">
-        <v>0</v>
-      </c>
-      <c r="R84" s="60">
-        <v>0</v>
-      </c>
-      <c r="S84" s="60">
-        <v>0</v>
-      </c>
-      <c r="T84" s="60">
-        <v>0</v>
-      </c>
-      <c r="U84" s="60">
-        <v>0</v>
-      </c>
-      <c r="V84" s="60">
-        <v>0</v>
-      </c>
-      <c r="W84" s="60">
-        <v>0</v>
-      </c>
-      <c r="X84" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="60">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="60">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="60">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="60">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="60">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="60">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
         <v>0</v>
       </c>
     </row>
@@ -26774,101 +26729,88 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" s="61">
-        <f>$M$85/9+D85</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="F85" s="61">
-        <f t="shared" ref="F85:L85" si="3">$M$85/9+E85</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="G85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="H85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="I85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="J85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="K85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.31111111111111112</v>
-      </c>
-      <c r="L85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="M85" s="64">
-        <f>B79</f>
-        <v>0.4</v>
-      </c>
-      <c r="N85" s="62">
-        <f>M85-$M$85/4</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="O85" s="62">
-        <f t="shared" ref="O85:Q85" si="4">N85-$M$85/4</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="P85" s="62">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="Q85" s="62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="60">
-        <v>0</v>
-      </c>
-      <c r="S85" s="60">
-        <v>0</v>
-      </c>
-      <c r="T85" s="60">
-        <v>0</v>
-      </c>
-      <c r="U85" s="60">
-        <v>0</v>
-      </c>
-      <c r="V85" s="60">
-        <v>0</v>
-      </c>
-      <c r="W85" s="60">
-        <v>0</v>
-      </c>
-      <c r="X85" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="60">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="60">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="60">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="60">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="60">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="60">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
         <v>0</v>
       </c>
     </row>
@@ -27171,51 +27113,51 @@
       </c>
       <c r="E3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!E85</f>
-        <v>3396083.8247232903</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="F3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!F85</f>
-        <v>3238126.4375268584</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="G3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!G85</f>
-        <v>3080169.0503304261</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="H3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!H85</f>
-        <v>2922211.6631339942</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="I3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!I85</f>
-        <v>2764254.2759375619</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="J3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!J85</f>
-        <v>2606296.88874113</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="K3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!K85</f>
-        <v>2448339.5015446977</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="L3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!L85</f>
-        <v>2290382.1143482653</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="M3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!M85</f>
-        <v>2132424.7271518335</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="N3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!N85</f>
-        <v>2487828.8483438054</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="O3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!O85</f>
-        <v>2843232.9695357778</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="P3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!P85</f>
-        <v>3198637.0907277502</v>
+        <v>3554041.2119197226</v>
       </c>
       <c r="Q3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Q85</f>
@@ -27300,39 +27242,39 @@
       </c>
       <c r="E4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!E84</f>
-        <v>264411933.33333334</v>
+        <v>265800000</v>
       </c>
       <c r="F4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!F84</f>
-        <v>263023866.66666666</v>
+        <v>265800000</v>
       </c>
       <c r="G4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!G84</f>
-        <v>261635800</v>
+        <v>265800000</v>
       </c>
       <c r="H4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!H84</f>
-        <v>260247733.33333334</v>
+        <v>265800000</v>
       </c>
       <c r="I4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!I84</f>
-        <v>258859666.66666666</v>
+        <v>265800000</v>
       </c>
       <c r="J4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!J84</f>
-        <v>257471600</v>
+        <v>265800000</v>
       </c>
       <c r="K4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!K84</f>
-        <v>256083533.33333334</v>
+        <v>265800000</v>
       </c>
       <c r="L4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!L84</f>
-        <v>254695466.66666666</v>
+        <v>265800000</v>
       </c>
       <c r="M4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!M84</f>
-        <v>253307400</v>
+        <v>265800000</v>
       </c>
       <c r="N4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!N84</f>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD6CD2D-AE1B-423B-9A95-7F3C436C29B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF65F1E0-8CB5-4AA0-9A0C-715C24A9CB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId10"/>
+    <pivotCache cacheId="40" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -8245,7 +8245,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F9A18EA-B1D4-4240-B553-42848006A3CE}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F9A18EA-B1D4-4240-B553-42848006A3CE}" name="PivotTable2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -8669,7 +8669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -27006,8 +27006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2FB926-1F0A-48DA-A285-A57511180878}">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="L35" workbookViewId="0">
+      <selection activeCell="AF58" sqref="AF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28575,40 +28575,40 @@
         <v>0</v>
       </c>
       <c r="D40" s="59">
-        <v>4957409381663.0781</v>
+        <v>0</v>
       </c>
       <c r="E40" s="59">
-        <v>8926839019189.7656</v>
+        <v>0</v>
       </c>
       <c r="F40" s="59">
-        <v>12203304904051.205</v>
+        <v>0</v>
       </c>
       <c r="G40" s="59">
-        <v>15384377094121.08</v>
+        <v>0</v>
       </c>
       <c r="H40" s="59">
-        <v>17578198294243</v>
+        <v>0</v>
       </c>
       <c r="I40" s="59">
-        <v>17459141791044.742</v>
+        <v>0</v>
       </c>
       <c r="J40" s="59">
-        <v>15815565031982.941</v>
+        <v>0</v>
       </c>
       <c r="K40" s="59">
-        <v>14795655650319.861</v>
+        <v>0</v>
       </c>
       <c r="L40" s="59">
-        <v>12251226012793.074</v>
+        <v>0</v>
       </c>
       <c r="M40" s="59">
-        <v>9978678038379.5293</v>
+        <v>0</v>
       </c>
       <c r="N40" s="59">
-        <v>6652452025586.3525</v>
+        <v>0</v>
       </c>
       <c r="O40" s="59">
-        <v>3326226012793.1763</v>
+        <v>0</v>
       </c>
       <c r="P40" s="59">
         <v>0</v>
@@ -28682,91 +28682,76 @@
         <v>0</v>
       </c>
       <c r="H41" s="59">
-        <v>508293245022.12891</v>
+        <v>0</v>
       </c>
       <c r="I41" s="59">
-        <v>7053534757719.293</v>
+        <v>0</v>
       </c>
       <c r="J41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="K41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="L41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="M41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="N41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="O41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="P41" s="59">
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="59">
-        <f>P41</f>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="R41" s="59">
-        <f t="shared" ref="R41:AE41" si="10">Q41</f>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="S41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="T41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="U41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="V41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="W41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="X41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="59">
-        <f t="shared" si="10"/>
-        <v>10179858186482.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -29225,119 +29210,119 @@
         <v>11739999999999.781</v>
       </c>
       <c r="C50" s="59">
-        <f t="shared" ref="C50:AE50" si="11">C45-C40</f>
+        <f t="shared" ref="C50:AE50" si="10">C45-C40</f>
         <v>15479999999999.563</v>
       </c>
       <c r="D50" s="59">
-        <f t="shared" si="11"/>
-        <v>14262590618336.266</v>
+        <f t="shared" si="10"/>
+        <v>19219999999999.344</v>
       </c>
       <c r="E50" s="59">
-        <f t="shared" si="11"/>
-        <v>14033160980809.359</v>
+        <f t="shared" si="10"/>
+        <v>22959999999999.125</v>
       </c>
       <c r="F50" s="59">
-        <f t="shared" si="11"/>
-        <v>14496695095948.611</v>
+        <f t="shared" si="10"/>
+        <v>26699999999999.816</v>
       </c>
       <c r="G50" s="59">
-        <f t="shared" si="11"/>
-        <v>15055622905878.521</v>
+        <f t="shared" si="10"/>
+        <v>30439999999999.602</v>
       </c>
       <c r="H50" s="59">
-        <f t="shared" si="11"/>
-        <v>16601801705756.383</v>
+        <f t="shared" si="10"/>
+        <v>34179999999999.383</v>
       </c>
       <c r="I50" s="59">
         <f>I45-I40</f>
-        <v>20460858208954.422</v>
+        <v>37919999999999.164</v>
       </c>
       <c r="J50" s="59">
-        <f t="shared" si="11"/>
-        <v>25844434968016.004</v>
+        <f t="shared" si="10"/>
+        <v>41659999999998.945</v>
       </c>
       <c r="K50" s="59">
-        <f t="shared" si="11"/>
-        <v>30604344349679.773</v>
+        <f t="shared" si="10"/>
+        <v>45399999999999.633</v>
       </c>
       <c r="L50" s="59">
-        <f t="shared" si="11"/>
-        <v>36888773987206.344</v>
+        <f t="shared" si="10"/>
+        <v>49139999999999.414</v>
       </c>
       <c r="M50" s="59">
-        <f t="shared" si="11"/>
-        <v>42901321961619.672</v>
+        <f t="shared" si="10"/>
+        <v>52879999999999.203</v>
       </c>
       <c r="N50" s="59">
-        <f t="shared" si="11"/>
-        <v>49967547974412.633</v>
+        <f t="shared" si="10"/>
+        <v>56619999999998.984</v>
       </c>
       <c r="O50" s="59">
-        <f t="shared" si="11"/>
-        <v>57033773987206.492</v>
+        <f t="shared" si="10"/>
+        <v>60359999999999.672</v>
       </c>
       <c r="P50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>64099999999999.453</v>
       </c>
       <c r="Q50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>65210000000000.039</v>
       </c>
       <c r="R50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>66320000000000.164</v>
       </c>
       <c r="S50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>67430000000000.289</v>
       </c>
       <c r="T50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>68540000000000.422</v>
       </c>
       <c r="U50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>69650000000000.094</v>
       </c>
       <c r="V50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>70760000000000.219</v>
       </c>
       <c r="W50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>71870000000000.344</v>
       </c>
       <c r="X50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>72980000000000.016</v>
       </c>
       <c r="Y50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>74090000000000.141</v>
       </c>
       <c r="Z50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>75200000000000.266</v>
       </c>
       <c r="AA50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>76629999999999.656</v>
       </c>
       <c r="AB50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>78059999999999.953</v>
       </c>
       <c r="AC50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>79489999999999.781</v>
       </c>
       <c r="AD50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>80919999999999.625</v>
       </c>
       <c r="AE50" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>82349999999999.906</v>
       </c>
     </row>
@@ -29350,120 +29335,120 @@
         <v>0</v>
       </c>
       <c r="C51" s="59">
-        <f t="shared" ref="C51:AE51" si="12">C46-C41</f>
+        <f t="shared" ref="C51:AE51" si="11">C46-C41</f>
         <v>990000000001.60071</v>
       </c>
       <c r="D51" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>10360000000000.582</v>
       </c>
       <c r="E51" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>19729999999999.563</v>
       </c>
       <c r="F51" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>29100000000002.184</v>
       </c>
       <c r="G51" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>38470000000001.164</v>
       </c>
       <c r="H51" s="59">
-        <f t="shared" si="12"/>
-        <v>47331706754978.016</v>
+        <f t="shared" si="11"/>
+        <v>47840000000000.148</v>
       </c>
       <c r="I51" s="59">
-        <f t="shared" si="12"/>
-        <v>50156465242279.828</v>
+        <f t="shared" si="11"/>
+        <v>57209999999999.125</v>
       </c>
       <c r="J51" s="59">
-        <f t="shared" si="12"/>
-        <v>56400141813519.594</v>
+        <f t="shared" si="11"/>
+        <v>66580000000001.75</v>
       </c>
       <c r="K51" s="59">
-        <f t="shared" si="12"/>
-        <v>65770141813518.578</v>
+        <f t="shared" si="11"/>
+        <v>75950000000000.734</v>
       </c>
       <c r="L51" s="59">
-        <f t="shared" si="12"/>
-        <v>75140141813517.547</v>
+        <f t="shared" si="11"/>
+        <v>85319999999999.703</v>
       </c>
       <c r="M51" s="59">
-        <f t="shared" si="12"/>
-        <v>84510141813520.172</v>
+        <f t="shared" si="11"/>
+        <v>94690000000002.328</v>
       </c>
       <c r="N51" s="59">
-        <f t="shared" si="12"/>
-        <v>93880141813519.156</v>
+        <f t="shared" si="11"/>
+        <v>104060000000001.31</v>
       </c>
       <c r="O51" s="59">
-        <f t="shared" si="12"/>
-        <v>103250141813518.14</v>
+        <f t="shared" si="11"/>
+        <v>113430000000000.3</v>
       </c>
       <c r="P51" s="59">
-        <f t="shared" si="12"/>
-        <v>112620141813517.11</v>
+        <f t="shared" si="11"/>
+        <v>122799999999999.27</v>
       </c>
       <c r="Q51" s="59">
-        <f t="shared" si="12"/>
-        <v>116160141813517.98</v>
+        <f t="shared" si="11"/>
+        <v>126340000000000.14</v>
       </c>
       <c r="R51" s="59">
-        <f t="shared" si="12"/>
-        <v>119700141813517.95</v>
+        <f t="shared" si="11"/>
+        <v>129880000000000.11</v>
       </c>
       <c r="S51" s="59">
-        <f t="shared" si="12"/>
-        <v>123240141813517.92</v>
+        <f t="shared" si="11"/>
+        <v>133420000000000.08</v>
       </c>
       <c r="T51" s="59">
-        <f t="shared" si="12"/>
-        <v>126780141813517.88</v>
+        <f t="shared" si="11"/>
+        <v>136960000000000.03</v>
       </c>
       <c r="U51" s="59">
-        <f t="shared" si="12"/>
-        <v>130320141813517.84</v>
+        <f t="shared" si="11"/>
+        <v>140500000000000</v>
       </c>
       <c r="V51" s="59">
-        <f t="shared" si="12"/>
-        <v>133860141813517.81</v>
+        <f t="shared" si="11"/>
+        <v>144039999999999.97</v>
       </c>
       <c r="W51" s="59">
-        <f t="shared" si="12"/>
-        <v>137400141813517.78</v>
+        <f t="shared" si="11"/>
+        <v>147579999999999.94</v>
       </c>
       <c r="X51" s="59">
-        <f t="shared" si="12"/>
-        <v>140940141813517.75</v>
+        <f t="shared" si="11"/>
+        <v>151119999999999.91</v>
       </c>
       <c r="Y51" s="59">
-        <f t="shared" si="12"/>
-        <v>144480141813517.69</v>
+        <f t="shared" si="11"/>
+        <v>154659999999999.84</v>
       </c>
       <c r="Z51" s="59">
-        <f t="shared" si="12"/>
-        <v>148020141813517.66</v>
+        <f t="shared" si="11"/>
+        <v>158199999999999.81</v>
       </c>
       <c r="AA51" s="59">
-        <f t="shared" si="12"/>
-        <v>151390141813518.47</v>
+        <f t="shared" si="11"/>
+        <v>161570000000000.63</v>
       </c>
       <c r="AB51" s="59">
-        <f t="shared" si="12"/>
-        <v>154760141813518.34</v>
+        <f t="shared" si="11"/>
+        <v>164940000000000.5</v>
       </c>
       <c r="AC51" s="59">
-        <f t="shared" si="12"/>
-        <v>158130141813518.25</v>
+        <f t="shared" si="11"/>
+        <v>168310000000000.41</v>
       </c>
       <c r="AD51" s="59">
-        <f t="shared" si="12"/>
-        <v>161500141813518.13</v>
+        <f t="shared" si="11"/>
+        <v>171680000000000.28</v>
       </c>
       <c r="AE51" s="59">
-        <f t="shared" si="12"/>
-        <v>164870141813518.03</v>
+        <f t="shared" si="11"/>
+        <v>175050000000000.19</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
@@ -29577,51 +29562,51 @@
       </c>
       <c r="D55" s="66">
         <f>D50/CApULAbIFM!$B$2</f>
-        <v>9508393.7455575112</v>
+        <v>12813333.333332896</v>
       </c>
       <c r="E55" s="66">
         <f>E50/CApULAbIFM!$B$2</f>
-        <v>9355440.6538729072</v>
+        <v>15306666.666666083</v>
       </c>
       <c r="F55" s="66">
         <f>F50/CApULAbIFM!$B$2</f>
-        <v>9664463.3972990736</v>
+        <v>17799999.999999877</v>
       </c>
       <c r="G55" s="66">
         <f>G50/CApULAbIFM!$B$2</f>
-        <v>10037081.937252348</v>
+        <v>20293333.333333068</v>
       </c>
       <c r="H55" s="66">
         <f>H50/CApULAbIFM!$B$2</f>
-        <v>11067867.803837588</v>
+        <v>22786666.666666254</v>
       </c>
       <c r="I55" s="66">
         <f>I50/CApULAbIFM!$B$2</f>
-        <v>13640572.139302948</v>
+        <v>25279999.999999441</v>
       </c>
       <c r="J55" s="66">
         <f>J50/CApULAbIFM!$B$2</f>
-        <v>17229623.312010668</v>
+        <v>27773333.333332632</v>
       </c>
       <c r="K55" s="66">
         <f>K50/CApULAbIFM!$B$2</f>
-        <v>20402896.233119849</v>
+        <v>30266666.666666422</v>
       </c>
       <c r="L55" s="66">
         <f>L50/CApULAbIFM!$B$2</f>
-        <v>24592515.991470896</v>
+        <v>32759999.999999609</v>
       </c>
       <c r="M55" s="66">
         <f>M50/CApULAbIFM!$B$2</f>
-        <v>28600881.307746448</v>
+        <v>35253333.333332799</v>
       </c>
       <c r="N55" s="66">
         <f>N50/CApULAbIFM!$B$2</f>
-        <v>33311698.649608422</v>
+        <v>37746666.666665986</v>
       </c>
       <c r="O55" s="66">
         <f>O50/CApULAbIFM!$B$2</f>
-        <v>38022515.991470993</v>
+        <v>40239999.999999784</v>
       </c>
       <c r="P55" s="66">
         <f>P50/CApULAbIFM!$B$2</f>
@@ -29718,99 +29703,99 @@
       </c>
       <c r="H56" s="59">
         <f>H51/TNC_summary!$C$10</f>
-        <v>23988937.516587194</v>
+        <v>24246553.726331349</v>
       </c>
       <c r="I56" s="59">
         <f>I51/TNC_summary!$C$10</f>
-        <v>25420598.436868832</v>
+        <v>28995512.93234513</v>
       </c>
       <c r="J56" s="59">
         <f>J51/TNC_summary!$C$10</f>
-        <v>28585055.782905638</v>
+        <v>33744472.138360754</v>
       </c>
       <c r="K56" s="59">
         <f>K51/TNC_summary!$C$10</f>
-        <v>33334014.988919422</v>
+        <v>38493431.344374537</v>
       </c>
       <c r="L56" s="59">
         <f>L51/TNC_summary!$C$10</f>
-        <v>38082974.194933198</v>
+        <v>43242390.550388314</v>
       </c>
       <c r="M56" s="59">
         <f>M51/TNC_summary!$C$10</f>
-        <v>42831933.40094883</v>
+        <v>47991349.756403945</v>
       </c>
       <c r="N56" s="59">
         <f>N51/TNC_summary!$C$10</f>
-        <v>47580892.606962614</v>
+        <v>52740308.962417729</v>
       </c>
       <c r="O56" s="59">
         <f>O51/TNC_summary!$C$10</f>
-        <v>52329851.812976398</v>
+        <v>57489268.168431513</v>
       </c>
       <c r="P56" s="59">
         <f>P51/TNC_summary!$C$10</f>
-        <v>57078811.018990166</v>
+        <v>62238227.374445289</v>
       </c>
       <c r="Q56" s="59">
         <f>Q51/TNC_summary!$C$10</f>
-        <v>58872974.902586199</v>
+        <v>64032391.258041315</v>
       </c>
       <c r="R56" s="59">
         <f>R51/TNC_summary!$C$10</f>
-        <v>60667138.786181763</v>
+        <v>65826555.141636886</v>
       </c>
       <c r="S56" s="59">
         <f>S51/TNC_summary!$C$10</f>
-        <v>62461302.669777334</v>
+        <v>67620719.025232449</v>
       </c>
       <c r="T56" s="59">
         <f>T51/TNC_summary!$C$10</f>
-        <v>64255466.55337289</v>
+        <v>69414882.908828005</v>
       </c>
       <c r="U56" s="59">
         <f>U51/TNC_summary!$C$10</f>
-        <v>66049630.436968461</v>
+        <v>71209046.792423576</v>
       </c>
       <c r="V56" s="59">
         <f>V51/TNC_summary!$C$10</f>
-        <v>67843794.320564032</v>
+        <v>73003210.676019147</v>
       </c>
       <c r="W56" s="59">
         <f>W51/TNC_summary!$C$10</f>
-        <v>69637958.204159588</v>
+        <v>74797374.559614718</v>
       </c>
       <c r="X56" s="59">
         <f>X51/TNC_summary!$C$10</f>
-        <v>71432122.087755159</v>
+        <v>76591538.443210274</v>
       </c>
       <c r="Y56" s="59">
         <f>Y51/TNC_summary!$C$10</f>
-        <v>73226285.971350715</v>
+        <v>78385702.32680583</v>
       </c>
       <c r="Z56" s="59">
         <f>Z51/TNC_summary!$C$10</f>
-        <v>75020449.854946285</v>
+        <v>80179866.210401401</v>
       </c>
       <c r="AA56" s="59">
         <f>AA51/TNC_summary!$C$10</f>
-        <v>76728453.326053217</v>
+        <v>81887869.681508347</v>
       </c>
       <c r="AB56" s="59">
         <f>AB51/TNC_summary!$C$10</f>
-        <v>78436456.797159687</v>
+        <v>83595873.152614802</v>
       </c>
       <c r="AC56" s="59">
         <f>AC51/TNC_summary!$C$10</f>
-        <v>80144460.268266171</v>
+        <v>85303876.623721287</v>
       </c>
       <c r="AD56" s="59">
         <f>AD51/TNC_summary!$C$10</f>
-        <v>81852463.739372641</v>
+        <v>87011880.094827756</v>
       </c>
       <c r="AE56" s="59">
         <f>AE51/TNC_summary!$C$10</f>
-        <v>83560467.210479125</v>
+        <v>88719883.565934241</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -29919,119 +29904,119 @@
         <v>7826666.6666665208</v>
       </c>
       <c r="C60" s="66">
-        <f t="shared" ref="C60:AE60" si="13">C55</f>
+        <f t="shared" ref="C60:AE60" si="12">C55</f>
         <v>10319999.999999708</v>
       </c>
       <c r="D60" s="66">
-        <f t="shared" si="13"/>
-        <v>9508393.7455575112</v>
+        <f t="shared" si="12"/>
+        <v>12813333.333332896</v>
       </c>
       <c r="E60" s="66">
-        <f t="shared" si="13"/>
-        <v>9355440.6538729072</v>
+        <f t="shared" si="12"/>
+        <v>15306666.666666083</v>
       </c>
       <c r="F60" s="66">
-        <f t="shared" si="13"/>
-        <v>9664463.3972990736</v>
+        <f t="shared" si="12"/>
+        <v>17799999.999999877</v>
       </c>
       <c r="G60" s="66">
-        <f t="shared" si="13"/>
-        <v>10037081.937252348</v>
+        <f t="shared" si="12"/>
+        <v>20293333.333333068</v>
       </c>
       <c r="H60" s="66">
-        <f t="shared" si="13"/>
-        <v>11067867.803837588</v>
+        <f t="shared" si="12"/>
+        <v>22786666.666666254</v>
       </c>
       <c r="I60" s="66">
         <f>I55</f>
-        <v>13640572.139302948</v>
+        <v>25279999.999999441</v>
       </c>
       <c r="J60" s="66">
-        <f t="shared" si="13"/>
-        <v>17229623.312010668</v>
+        <f t="shared" si="12"/>
+        <v>27773333.333332632</v>
       </c>
       <c r="K60" s="66">
-        <f t="shared" si="13"/>
-        <v>20402896.233119849</v>
+        <f t="shared" si="12"/>
+        <v>30266666.666666422</v>
       </c>
       <c r="L60" s="66">
-        <f t="shared" si="13"/>
-        <v>24592515.991470896</v>
+        <f t="shared" si="12"/>
+        <v>32759999.999999609</v>
       </c>
       <c r="M60" s="66">
-        <f t="shared" si="13"/>
-        <v>28600881.307746448</v>
+        <f t="shared" si="12"/>
+        <v>35253333.333332799</v>
       </c>
       <c r="N60" s="66">
-        <f t="shared" si="13"/>
-        <v>33311698.649608422</v>
+        <f t="shared" si="12"/>
+        <v>37746666.666665986</v>
       </c>
       <c r="O60" s="66">
-        <f t="shared" si="13"/>
-        <v>38022515.991470993</v>
+        <f t="shared" si="12"/>
+        <v>40239999.999999784</v>
       </c>
       <c r="P60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>42733333.333332971</v>
       </c>
       <c r="Q60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43473333.333333358</v>
       </c>
       <c r="R60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44213333.33333344</v>
       </c>
       <c r="S60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44953333.33333353</v>
       </c>
       <c r="T60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45693333.333333611</v>
       </c>
       <c r="U60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>46433333.333333395</v>
       </c>
       <c r="V60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>47173333.333333477</v>
       </c>
       <c r="W60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>47913333.333333559</v>
       </c>
       <c r="X60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>48653333.333333343</v>
       </c>
       <c r="Y60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>49393333.333333425</v>
       </c>
       <c r="Z60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>50133333.333333507</v>
       </c>
       <c r="AA60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>51086666.666666441</v>
       </c>
       <c r="AB60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>52039999.99999997</v>
       </c>
       <c r="AC60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>52993333.333333187</v>
       </c>
       <c r="AD60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>53946666.666666418</v>
       </c>
       <c r="AE60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>54899999.99999994</v>
       </c>
     </row>
@@ -30048,115 +30033,115 @@
         <v>501757.69626059307</v>
       </c>
       <c r="D61" s="59">
-        <f t="shared" ref="D61:AE61" si="14">D56-C56</f>
+        <f t="shared" ref="D61:AE61" si="13">D56-C56</f>
         <v>4748959.2060137819</v>
       </c>
       <c r="E61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.206013781</v>
       </c>
       <c r="F61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060156278</v>
       </c>
       <c r="G61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060137819</v>
       </c>
       <c r="H61" s="59">
-        <f t="shared" si="14"/>
-        <v>4491342.9962696284</v>
+        <f t="shared" si="13"/>
+        <v>4748959.2060137838</v>
       </c>
       <c r="I61" s="59">
-        <f t="shared" si="14"/>
-        <v>1431660.9202816375</v>
+        <f t="shared" si="13"/>
+        <v>4748959.2060137801</v>
       </c>
       <c r="J61" s="59">
-        <f t="shared" si="14"/>
-        <v>3164457.3460368067</v>
+        <f t="shared" si="13"/>
+        <v>4748959.2060156241</v>
       </c>
       <c r="K61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060137838</v>
       </c>
       <c r="L61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060137764</v>
       </c>
       <c r="M61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060156316</v>
       </c>
       <c r="N61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060137838</v>
       </c>
       <c r="O61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4748959.2060137838</v>
       </c>
       <c r="P61" s="59">
-        <f t="shared" si="14"/>
-        <v>4748959.2060137689</v>
+        <f t="shared" si="13"/>
+        <v>4748959.2060137764</v>
       </c>
       <c r="Q61" s="59">
-        <f t="shared" si="14"/>
-        <v>1794163.8835960329</v>
+        <f t="shared" si="13"/>
+        <v>1794163.8835960254</v>
       </c>
       <c r="R61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>1794163.8835955709</v>
+      </c>
+      <c r="S61" s="59">
+        <f t="shared" si="13"/>
         <v>1794163.8835955635</v>
       </c>
-      <c r="S61" s="59">
-        <f t="shared" si="14"/>
+      <c r="T61" s="59">
+        <f t="shared" si="13"/>
+        <v>1794163.883595556</v>
+      </c>
+      <c r="U61" s="59">
+        <f t="shared" si="13"/>
         <v>1794163.8835955709</v>
       </c>
-      <c r="T61" s="59">
-        <f t="shared" si="14"/>
+      <c r="V61" s="59">
+        <f t="shared" si="13"/>
+        <v>1794163.8835955709</v>
+      </c>
+      <c r="W61" s="59">
+        <f t="shared" si="13"/>
+        <v>1794163.8835955709</v>
+      </c>
+      <c r="X61" s="59">
+        <f t="shared" si="13"/>
         <v>1794163.883595556</v>
       </c>
-      <c r="U61" s="59">
-        <f t="shared" si="14"/>
+      <c r="Y61" s="59">
+        <f t="shared" si="13"/>
+        <v>1794163.883595556</v>
+      </c>
+      <c r="Z61" s="59">
+        <f t="shared" si="13"/>
         <v>1794163.8835955709</v>
       </c>
-      <c r="V61" s="59">
-        <f t="shared" si="14"/>
-        <v>1794163.8835955709</v>
-      </c>
-      <c r="W61" s="59">
-        <f t="shared" si="14"/>
-        <v>1794163.883595556</v>
-      </c>
-      <c r="X61" s="59">
-        <f t="shared" si="14"/>
-        <v>1794163.8835955709</v>
-      </c>
-      <c r="Y61" s="59">
-        <f t="shared" si="14"/>
-        <v>1794163.883595556</v>
-      </c>
-      <c r="Z61" s="59">
-        <f t="shared" si="14"/>
-        <v>1794163.8835955709</v>
-      </c>
       <c r="AA61" s="59">
-        <f t="shared" si="14"/>
-        <v>1708003.4711069316</v>
+        <f t="shared" si="13"/>
+        <v>1708003.4711069465</v>
       </c>
       <c r="AB61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>1708003.4711064547</v>
+      </c>
+      <c r="AC61" s="59">
+        <f t="shared" si="13"/>
+        <v>1708003.4711064845</v>
+      </c>
+      <c r="AD61" s="59">
+        <f t="shared" si="13"/>
         <v>1708003.4711064696</v>
       </c>
-      <c r="AC61" s="59">
-        <f t="shared" si="14"/>
-        <v>1708003.4711064845</v>
-      </c>
-      <c r="AD61" s="59">
-        <f t="shared" si="14"/>
-        <v>1708003.4711064696</v>
-      </c>
       <c r="AE61" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1708003.4711064845</v>
       </c>
     </row>
@@ -49893,7 +49878,7 @@
   </sheetPr>
   <dimension ref="A1:BL66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -51929,7 +51914,7 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52158,15 +52143,15 @@
       </c>
       <c r="H3" s="3">
         <f>'EPA land and ag calcs'!H61</f>
-        <v>4491342.9962696284</v>
+        <v>4748959.2060137838</v>
       </c>
       <c r="I3" s="3">
         <f>'EPA land and ag calcs'!I61</f>
-        <v>1431660.9202816375</v>
+        <v>4748959.2060137801</v>
       </c>
       <c r="J3" s="3">
         <f>'EPA land and ag calcs'!J61</f>
-        <v>3164457.3460368067</v>
+        <v>4748959.2060156241</v>
       </c>
       <c r="K3" s="3">
         <f>'EPA land and ag calcs'!K61</f>
@@ -52190,19 +52175,19 @@
       </c>
       <c r="P3" s="3">
         <f>'EPA land and ag calcs'!P61</f>
-        <v>4748959.2060137689</v>
+        <v>4748959.2060137764</v>
       </c>
       <c r="Q3" s="3">
         <f>'EPA land and ag calcs'!Q61</f>
-        <v>1794163.8835960329</v>
+        <v>1794163.8835960254</v>
       </c>
       <c r="R3" s="3">
         <f>'EPA land and ag calcs'!R61</f>
-        <v>1794163.8835955635</v>
+        <v>1794163.8835955709</v>
       </c>
       <c r="S3" s="3">
         <f>'EPA land and ag calcs'!S61</f>
-        <v>1794163.8835955709</v>
+        <v>1794163.8835955635</v>
       </c>
       <c r="T3" s="3">
         <f>'EPA land and ag calcs'!T61</f>
@@ -52218,11 +52203,11 @@
       </c>
       <c r="W3" s="3">
         <f>'EPA land and ag calcs'!W61</f>
-        <v>1794163.883595556</v>
+        <v>1794163.8835955709</v>
       </c>
       <c r="X3" s="3">
         <f>'EPA land and ag calcs'!X61</f>
-        <v>1794163.8835955709</v>
+        <v>1794163.883595556</v>
       </c>
       <c r="Y3" s="3">
         <f>'EPA land and ag calcs'!Y61</f>
@@ -52234,11 +52219,11 @@
       </c>
       <c r="AA3" s="3">
         <f>'EPA land and ag calcs'!AA61</f>
-        <v>1708003.4711069316</v>
+        <v>1708003.4711069465</v>
       </c>
       <c r="AB3" s="3">
         <f>'EPA land and ag calcs'!AB61</f>
-        <v>1708003.4711064696</v>
+        <v>1708003.4711064547</v>
       </c>
       <c r="AC3" s="3">
         <f>'EPA land and ag calcs'!AC61</f>
@@ -52267,51 +52252,51 @@
       </c>
       <c r="D4" s="3">
         <f>'EPA land and ag calcs'!D60</f>
-        <v>9508393.7455575112</v>
+        <v>12813333.333332896</v>
       </c>
       <c r="E4" s="3">
         <f>'EPA land and ag calcs'!E60</f>
-        <v>9355440.6538729072</v>
+        <v>15306666.666666083</v>
       </c>
       <c r="F4" s="3">
         <f>'EPA land and ag calcs'!F60</f>
-        <v>9664463.3972990736</v>
+        <v>17799999.999999877</v>
       </c>
       <c r="G4" s="3">
         <f>'EPA land and ag calcs'!G60</f>
-        <v>10037081.937252348</v>
+        <v>20293333.333333068</v>
       </c>
       <c r="H4" s="3">
         <f>'EPA land and ag calcs'!H60</f>
-        <v>11067867.803837588</v>
+        <v>22786666.666666254</v>
       </c>
       <c r="I4" s="3">
         <f>'EPA land and ag calcs'!I60</f>
-        <v>13640572.139302948</v>
+        <v>25279999.999999441</v>
       </c>
       <c r="J4" s="3">
         <f>'EPA land and ag calcs'!J60</f>
-        <v>17229623.312010668</v>
+        <v>27773333.333332632</v>
       </c>
       <c r="K4" s="3">
         <f>'EPA land and ag calcs'!K60</f>
-        <v>20402896.233119849</v>
+        <v>30266666.666666422</v>
       </c>
       <c r="L4" s="3">
         <f>'EPA land and ag calcs'!L60</f>
-        <v>24592515.991470896</v>
+        <v>32759999.999999609</v>
       </c>
       <c r="M4" s="3">
         <f>'EPA land and ag calcs'!M60</f>
-        <v>28600881.307746448</v>
+        <v>35253333.333332799</v>
       </c>
       <c r="N4" s="3">
         <f>'EPA land and ag calcs'!N60</f>
-        <v>33311698.649608422</v>
+        <v>37746666.666665986</v>
       </c>
       <c r="O4" s="3">
         <f>'EPA land and ag calcs'!O60</f>
-        <v>38022515.991470993</v>
+        <v>40239999.999999784</v>
       </c>
       <c r="P4" s="3">
         <f>'EPA land and ag calcs'!P60</f>
